--- a/BackTest/2019-10-31 BackTest LBA.xlsx
+++ b/BackTest/2019-10-31 BackTest LBA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-40.00000000000007</v>
+      </c>
       <c r="L12" t="n">
         <v>19.06</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.300000000000004</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>19.02999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L14" t="n">
         <v>19.04999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L15" t="n">
         <v>19.06999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.600000000000005</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>40.00000000000007</v>
+      </c>
       <c r="L16" t="n">
         <v>19.09999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.700000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.11111111111085</v>
+      </c>
       <c r="L17" t="n">
         <v>19.12999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.000000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-27.27272727272722</v>
+      </c>
       <c r="L18" t="n">
         <v>19.10999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.000000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-27.27272727272722</v>
+      </c>
       <c r="L19" t="n">
         <v>19.07999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-42.85714285714278</v>
+      </c>
       <c r="L20" t="n">
         <v>19</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.600000000000009</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-28.57142857142835</v>
+      </c>
       <c r="L21" t="n">
         <v>18.95</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.100000000000009</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>18.96</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.900000000000009</v>
       </c>
       <c r="K23" t="n">
-        <v>-29.72972972972969</v>
+        <v>-41.66666666666657</v>
       </c>
       <c r="L23" t="n">
         <v>18.88</v>
@@ -1466,7 +1488,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K24" t="n">
-        <v>-2.439024390243932</v>
+        <v>-9.677419354838717</v>
       </c>
       <c r="L24" t="n">
         <v>18.85</v>
@@ -1515,7 +1537,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.090909090909047</v>
+        <v>-21.21212121212119</v>
       </c>
       <c r="L25" t="n">
         <v>18.79</v>
@@ -1564,7 +1586,7 @@
         <v>5.000000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.666666666666678</v>
+        <v>-15.15151515151517</v>
       </c>
       <c r="L26" t="n">
         <v>18.73</v>
@@ -1613,7 +1635,7 @@
         <v>5.100000000000005</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.222222222222173</v>
+        <v>-3.225806451612836</v>
       </c>
       <c r="L27" t="n">
         <v>18.69</v>
@@ -1662,7 +1684,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.89361702127665</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>18.64</v>
@@ -1711,7 +1733,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.89361702127656</v>
+        <v>3.225806451612947</v>
       </c>
       <c r="L29" t="n">
         <v>18.6</v>
@@ -1760,7 +1782,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.89361702127656</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>18.61</v>
@@ -1809,7 +1831,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.695652173912997</v>
+        <v>-15.38461538461532</v>
       </c>
       <c r="L31" t="n">
         <v>18.62</v>
@@ -1860,7 +1882,7 @@
         <v>5.70000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.666666666666593</v>
+        <v>22.22222222222233</v>
       </c>
       <c r="L32" t="n">
         <v>18.57999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>5.800000000000008</v>
       </c>
       <c r="K33" t="n">
-        <v>-6.666666666666678</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L33" t="n">
         <v>18.63</v>
@@ -1962,7 +1984,7 @@
         <v>6.000000000000007</v>
       </c>
       <c r="K34" t="n">
-        <v>-15.55555555555553</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L34" t="n">
         <v>18.59</v>
@@ -2013,7 +2035,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K35" t="n">
-        <v>-10.63829787234042</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>18.59999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>6.400000000000006</v>
       </c>
       <c r="K36" t="n">
-        <v>-16.66666666666668</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L36" t="n">
         <v>18.57999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>6.700000000000006</v>
       </c>
       <c r="K37" t="n">
-        <v>-20</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L37" t="n">
         <v>18.51999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>7.100000000000005</v>
       </c>
       <c r="K38" t="n">
-        <v>-21.56862745098036</v>
+        <v>-46.66666666666673</v>
       </c>
       <c r="L38" t="n">
         <v>18.45999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>7.500000000000004</v>
       </c>
       <c r="K39" t="n">
-        <v>-12.72727272727272</v>
+        <v>-15.78947368421061</v>
       </c>
       <c r="L39" t="n">
         <v>18.42999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>7.500000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.999999999999988</v>
+        <v>-22.22222222222242</v>
       </c>
       <c r="L40" t="n">
         <v>18.39999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>7.500000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.122448979591858</v>
+        <v>-22.22222222222242</v>
       </c>
       <c r="L41" t="n">
         <v>18.35999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>7.600000000000005</v>
       </c>
       <c r="K42" t="n">
-        <v>-15.55555555555555</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L42" t="n">
         <v>18.32999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="K43" t="n">
-        <v>5.263157894736832</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L43" t="n">
         <v>18.29999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-18.74999999999998</v>
+        <v>-25</v>
       </c>
       <c r="L44" t="n">
         <v>18.27999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>5.882352941176458</v>
+        <v>15.78947368421061</v>
       </c>
       <c r="L45" t="n">
         <v>18.29</v>
@@ -2574,7 +2596,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>3.030303030303076</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L46" t="n">
         <v>18.32</v>
@@ -2625,7 +2647,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>83.33333333333363</v>
       </c>
       <c r="L47" t="n">
         <v>18.38</v>
@@ -2676,7 +2698,7 @@
         <v>8.600000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>3.225806451612955</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L48" t="n">
         <v>18.45</v>
@@ -2727,7 +2749,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>9.090909090909131</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L49" t="n">
         <v>18.51</v>
@@ -2778,7 +2800,7 @@
         <v>9.400000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.263157894736832</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L50" t="n">
         <v>18.52</v>
@@ -2829,7 +2851,7 @@
         <v>9.400000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.108108108108144</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>18.53000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>9.400000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-8.108108108108144</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L52" t="n">
         <v>18.53000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>9.700000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.564102564102513</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L53" t="n">
         <v>18.55</v>
@@ -2982,7 +3004,7 @@
         <v>9.700000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>2.702702702702744</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L54" t="n">
         <v>18.58000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>10.3</v>
       </c>
       <c r="K55" t="n">
-        <v>-17.07317073170731</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L55" t="n">
         <v>18.5</v>
@@ -3084,7 +3106,7 @@
         <v>10.6</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.761904761904746</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L56" t="n">
         <v>18.45</v>
@@ -3135,7 +3157,7 @@
         <v>10.8</v>
       </c>
       <c r="K57" t="n">
-        <v>7.317073170731729</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>18.42</v>
@@ -3186,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="K58" t="n">
-        <v>12.82051282051282</v>
+        <v>-23.8095238095238</v>
       </c>
       <c r="L58" t="n">
         <v>18.4</v>
@@ -3237,7 +3259,7 @@
         <v>11.5</v>
       </c>
       <c r="K59" t="n">
-        <v>15.00000000000004</v>
+        <v>23.8095238095238</v>
       </c>
       <c r="L59" t="n">
         <v>18.4</v>
@@ -3288,7 +3310,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>4.545454545454527</v>
+        <v>3.999999999999909</v>
       </c>
       <c r="L60" t="n">
         <v>18.41</v>
@@ -3339,7 +3361,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>6.666666666666678</v>
+        <v>7.69230769230765</v>
       </c>
       <c r="L61" t="n">
         <v>18.43</v>
@@ -3390,7 +3412,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>6.666666666666678</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>18.46</v>
@@ -3441,7 +3463,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L63" t="n">
         <v>18.44</v>
@@ -3492,7 +3514,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>6.382978723404252</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L64" t="n">
         <v>18.44</v>
@@ -3543,7 +3565,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.090909090909104</v>
+        <v>4.761904761904633</v>
       </c>
       <c r="L65" t="n">
         <v>18.48</v>
@@ -3594,7 +3616,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>-13.04347826086955</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L66" t="n">
         <v>18.47</v>
@@ -3645,7 +3667,7 @@
         <v>12.90000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>-13.04347826086955</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L67" t="n">
         <v>18.44</v>
@@ -3696,7 +3718,7 @@
         <v>13.00000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-4.545454545454512</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L68" t="n">
         <v>18.44</v>
@@ -3747,7 +3769,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.28571428571426</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L69" t="n">
         <v>18.38</v>
@@ -3798,7 +3820,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-2.702702702702728</v>
+        <v>-27.27272727272704</v>
       </c>
       <c r="L70" t="n">
         <v>18.35999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.702702702702728</v>
+        <v>-39.99999999999979</v>
       </c>
       <c r="L71" t="n">
         <v>18.32999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>11.62790697674414</v>
+        <v>28.57142857142854</v>
       </c>
       <c r="L72" t="n">
         <v>18.34999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>-2.32558139534886</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L73" t="n">
         <v>18.35999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.666666666666655</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L74" t="n">
         <v>18.32999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.32558139534886</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L75" t="n">
         <v>18.27999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>6.382978723404243</v>
+        <v>16.66666666666669</v>
       </c>
       <c r="L76" t="n">
         <v>18.32</v>
@@ -4155,7 +4177,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>-2.127659574468105</v>
+        <v>3.999999999999897</v>
       </c>
       <c r="L77" t="n">
         <v>18.34</v>
@@ -4206,7 +4228,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>2.222222222222163</v>
+        <v>8.333333333333272</v>
       </c>
       <c r="L78" t="n">
         <v>18.35</v>
@@ -4257,7 +4279,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K79" t="n">
-        <v>-9.999999999999991</v>
+        <v>8.333333333333272</v>
       </c>
       <c r="L79" t="n">
         <v>18.37</v>
@@ -4308,7 +4330,7 @@
         <v>15.60000000000003</v>
       </c>
       <c r="K80" t="n">
-        <v>2.702702702702724</v>
+        <v>11.99999999999998</v>
       </c>
       <c r="L80" t="n">
         <v>18.4</v>
@@ -4359,7 +4381,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>-2.702702702702724</v>
+        <v>-20</v>
       </c>
       <c r="L81" t="n">
         <v>18.42</v>
@@ -4410,7 +4432,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L82" t="n">
         <v>18.4</v>
@@ -4461,7 +4483,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>5.5555555555556</v>
+        <v>17.64705882352931</v>
       </c>
       <c r="L83" t="n">
         <v>18.41</v>
@@ -4512,7 +4534,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>-5.5555555555556</v>
+        <v>33.33333333333302</v>
       </c>
       <c r="L84" t="n">
         <v>18.42</v>
@@ -4563,7 +4585,7 @@
         <v>16.20000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>2.85714285714288</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L85" t="n">
         <v>18.48</v>
@@ -4614,7 +4636,7 @@
         <v>16.30000000000004</v>
       </c>
       <c r="K86" t="n">
-        <v>5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>18.46</v>
@@ -4665,7 +4687,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K87" t="n">
-        <v>11.11111111111109</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>18.48</v>
@@ -4716,7 +4738,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K88" t="n">
-        <v>11.111111111111</v>
+        <v>27.27272727272704</v>
       </c>
       <c r="L88" t="n">
         <v>18.51</v>
@@ -4767,7 +4789,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K89" t="n">
-        <v>14.2857142857142</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L89" t="n">
         <v>18.54</v>
@@ -4818,7 +4840,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K90" t="n">
-        <v>14.2857142857142</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L90" t="n">
         <v>18.56</v>
@@ -4869,7 +4891,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K91" t="n">
-        <v>14.2857142857142</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L91" t="n">
         <v>18.58999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K92" t="n">
-        <v>-3.448275862068991</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L92" t="n">
         <v>18.59999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K93" t="n">
-        <v>7.692307692307608</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L93" t="n">
         <v>18.60999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K94" t="n">
-        <v>23.07692307692282</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L94" t="n">
         <v>18.65999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K95" t="n">
-        <v>47.82608695652142</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>18.70999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>17.10000000000004</v>
       </c>
       <c r="K96" t="n">
-        <v>33.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>18.78999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K97" t="n">
-        <v>52.94117647058793</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>18.85999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>17.30000000000004</v>
       </c>
       <c r="K98" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>18.92999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>17.60000000000004</v>
       </c>
       <c r="K99" t="n">
-        <v>33.33333333333333</v>
+        <v>40.00000000000036</v>
       </c>
       <c r="L99" t="n">
         <v>18.96999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>17.70000000000003</v>
       </c>
       <c r="K100" t="n">
-        <v>33.33333333333322</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L100" t="n">
         <v>19.01999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>17.80000000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>42.85714285714285</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L101" t="n">
         <v>19.07999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>17.80000000000004</v>
       </c>
       <c r="K102" t="n">
-        <v>36.84210526315781</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L102" t="n">
         <v>19.14</v>
@@ -5481,7 +5503,7 @@
         <v>17.90000000000004</v>
       </c>
       <c r="K103" t="n">
-        <v>29.99999999999984</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L103" t="n">
         <v>19.19</v>
@@ -5532,7 +5554,7 @@
         <v>18.10000000000004</v>
       </c>
       <c r="K104" t="n">
-        <v>30.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>19.2</v>
@@ -5583,7 +5605,7 @@
         <v>18.20000000000004</v>
       </c>
       <c r="K105" t="n">
-        <v>30.00000000000007</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L105" t="n">
         <v>19.21</v>
@@ -5634,7 +5656,7 @@
         <v>18.40000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>19.22</v>
@@ -5685,7 +5707,7 @@
         <v>18.50000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>29.99999999999995</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L107" t="n">
         <v>19.21</v>
@@ -5736,7 +5758,7 @@
         <v>18.50000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>26.31578947368423</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L108" t="n">
         <v>19.18999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>18.80000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>9.090909090909062</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L109" t="n">
         <v>19.16999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>18.80000000000004</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090909062</v>
+        <v>-40.00000000000007</v>
       </c>
       <c r="L110" t="n">
         <v>19.14</v>
@@ -5889,7 +5911,7 @@
         <v>19.10000000000004</v>
       </c>
       <c r="K111" t="n">
-        <v>20</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L111" t="n">
         <v>19.13</v>
@@ -5940,7 +5962,7 @@
         <v>19.10000000000004</v>
       </c>
       <c r="K112" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>19.11999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>19.10000000000004</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L113" t="n">
         <v>19.11999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>19.20000000000004</v>
       </c>
       <c r="K114" t="n">
-        <v>8.333333333333456</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>19.12999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>19.30000000000004</v>
       </c>
       <c r="K115" t="n">
-        <v>8.33333333333332</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L115" t="n">
         <v>19.13999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>19.40000000000004</v>
       </c>
       <c r="K116" t="n">
-        <v>4.347826086956589</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L116" t="n">
         <v>19.13999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>19.60000000000004</v>
       </c>
       <c r="K117" t="n">
-        <v>-8.33333333333332</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L117" t="n">
         <v>19.12999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>19.80000000000004</v>
       </c>
       <c r="K118" t="n">
-        <v>-3.99999999999992</v>
+        <v>40.00000000000036</v>
       </c>
       <c r="L118" t="n">
         <v>19.13999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>20.00000000000004</v>
       </c>
       <c r="K119" t="n">
-        <v>16.66666666666662</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L119" t="n">
         <v>19.2</v>
@@ -6348,7 +6370,7 @@
         <v>20.00000000000004</v>
       </c>
       <c r="K120" t="n">
-        <v>13.04347826086959</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L120" t="n">
         <v>19.25999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>20.10000000000004</v>
       </c>
       <c r="K121" t="n">
-        <v>4.347826086956428</v>
+        <v>20</v>
       </c>
       <c r="L121" t="n">
         <v>19.27999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>20.20000000000004</v>
       </c>
       <c r="K122" t="n">
-        <v>8.333333333333297</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L122" t="n">
         <v>19.31</v>
@@ -6501,7 +6523,7 @@
         <v>20.30000000000004</v>
       </c>
       <c r="K123" t="n">
-        <v>8.333333333333297</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L123" t="n">
         <v>19.33</v>
@@ -6552,7 +6574,7 @@
         <v>20.30000000000004</v>
       </c>
       <c r="K124" t="n">
-        <v>18.18181818181809</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L124" t="n">
         <v>19.36</v>
@@ -6603,7 +6625,7 @@
         <v>20.30000000000004</v>
       </c>
       <c r="K125" t="n">
-        <v>14.28571428571414</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L125" t="n">
         <v>19.38</v>
@@ -6654,7 +6676,7 @@
         <v>20.40000000000004</v>
       </c>
       <c r="K126" t="n">
-        <v>9.999999999999947</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L126" t="n">
         <v>19.4</v>
@@ -6705,7 +6727,7 @@
         <v>20.50000000000004</v>
       </c>
       <c r="K127" t="n">
-        <v>9.999999999999947</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L127" t="n">
         <v>19.43</v>
@@ -6756,7 +6778,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>19.45</v>
@@ -6807,7 +6829,7 @@
         <v>20.70000000000005</v>
       </c>
       <c r="K129" t="n">
-        <v>26.31578947368413</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>19.44</v>
@@ -6862,7 +6884,7 @@
         <v>20.80000000000005</v>
       </c>
       <c r="K130" t="n">
-        <v>29.99999999999996</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>19.44</v>
@@ -6919,7 +6941,7 @@
         <v>20.90000000000005</v>
       </c>
       <c r="K131" t="n">
-        <v>22.22222222222224</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L131" t="n">
         <v>19.46</v>
@@ -6976,7 +6998,7 @@
         <v>21.00000000000005</v>
       </c>
       <c r="K132" t="n">
-        <v>26.31578947368413</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L132" t="n">
         <v>19.48</v>
@@ -7033,7 +7055,7 @@
         <v>21.00000000000005</v>
       </c>
       <c r="K133" t="n">
-        <v>26.31578947368413</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L133" t="n">
         <v>19.51</v>
@@ -7092,7 +7114,7 @@
         <v>21.20000000000005</v>
       </c>
       <c r="K134" t="n">
-        <v>39.99999999999972</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L134" t="n">
         <v>19.56</v>
@@ -7149,7 +7171,7 @@
         <v>21.40000000000005</v>
       </c>
       <c r="K135" t="n">
-        <v>42.85714285714271</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L135" t="n">
         <v>19.63</v>
@@ -7208,7 +7230,7 @@
         <v>21.40000000000005</v>
       </c>
       <c r="K136" t="n">
-        <v>39.99999999999982</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L136" t="n">
         <v>19.68999999999999</v>
@@ -7265,7 +7287,7 @@
         <v>21.50000000000005</v>
       </c>
       <c r="K137" t="n">
-        <v>47.36842105263118</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L137" t="n">
         <v>19.74999999999999</v>
@@ -7324,7 +7346,7 @@
         <v>21.70000000000005</v>
       </c>
       <c r="K138" t="n">
-        <v>47.36842105263118</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L138" t="n">
         <v>19.81999999999999</v>
@@ -7381,7 +7403,7 @@
         <v>21.70000000000005</v>
       </c>
       <c r="K139" t="n">
-        <v>41.17647058823493</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L139" t="n">
         <v>19.89999999999999</v>
@@ -7432,7 +7454,7 @@
         <v>22.40000000000005</v>
       </c>
       <c r="K140" t="n">
-        <v>58.33333333333296</v>
+        <v>86.66666666666649</v>
       </c>
       <c r="L140" t="n">
         <v>20.03999999999999</v>
@@ -7483,7 +7505,7 @@
         <v>22.40000000000005</v>
       </c>
       <c r="K141" t="n">
-        <v>65.2173913043475</v>
+        <v>85.71428571428554</v>
       </c>
       <c r="L141" t="n">
         <v>20.16999999999999</v>
@@ -7538,7 +7560,7 @@
         <v>22.70000000000005</v>
       </c>
       <c r="K142" t="n">
-        <v>67.99999999999969</v>
+        <v>88.23529411764692</v>
       </c>
       <c r="L142" t="n">
         <v>20.31999999999999</v>
@@ -7595,7 +7617,7 @@
         <v>23.60000000000005</v>
       </c>
       <c r="K143" t="n">
-        <v>81.81818181818163</v>
+        <v>91.66666666666656</v>
       </c>
       <c r="L143" t="n">
         <v>20.56</v>
@@ -7652,7 +7674,7 @@
         <v>23.90000000000005</v>
       </c>
       <c r="K144" t="n">
-        <v>83.33333333333314</v>
+        <v>91.99999999999989</v>
       </c>
       <c r="L144" t="n">
         <v>20.81</v>
@@ -7709,7 +7731,7 @@
         <v>24.90000000000005</v>
       </c>
       <c r="K145" t="n">
-        <v>43.47826086956514</v>
+        <v>37.14285714285706</v>
       </c>
       <c r="L145" t="n">
         <v>20.93999999999999</v>
@@ -7766,7 +7788,7 @@
         <v>25.50000000000005</v>
       </c>
       <c r="K146" t="n">
-        <v>49.01960784313717</v>
+        <v>50</v>
       </c>
       <c r="L146" t="n">
         <v>21.13</v>
@@ -7823,7 +7845,7 @@
         <v>26.10000000000005</v>
       </c>
       <c r="K147" t="n">
-        <v>35.71428571428566</v>
+        <v>27.27272727272724</v>
       </c>
       <c r="L147" t="n">
         <v>21.27</v>
@@ -7878,7 +7900,7 @@
         <v>26.30000000000005</v>
       </c>
       <c r="K148" t="n">
-        <v>36.84210526315785</v>
+        <v>30.43478260869567</v>
       </c>
       <c r="L148" t="n">
         <v>21.41</v>
@@ -7935,7 +7957,7 @@
         <v>26.70000000000006</v>
       </c>
       <c r="K149" t="n">
-        <v>29.99999999999996</v>
+        <v>6.976744186046516</v>
       </c>
       <c r="L149" t="n">
         <v>21.51</v>
@@ -7986,7 +8008,7 @@
         <v>26.90000000000006</v>
       </c>
       <c r="K150" t="n">
-        <v>31.14754098360649</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L150" t="n">
         <v>21.56</v>
@@ -8037,7 +8059,7 @@
         <v>27.20000000000006</v>
       </c>
       <c r="K151" t="n">
-        <v>33.33333333333326</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L151" t="n">
         <v>21.63999999999999</v>
@@ -8088,7 +8110,7 @@
         <v>27.20000000000006</v>
       </c>
       <c r="K152" t="n">
-        <v>32.25806451612898</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L152" t="n">
         <v>21.68999999999999</v>
@@ -8139,7 +8161,7 @@
         <v>27.20000000000006</v>
       </c>
       <c r="K153" t="n">
-        <v>32.25806451612898</v>
+        <v>-21.21212121212114</v>
       </c>
       <c r="L153" t="n">
         <v>21.65</v>
@@ -8190,7 +8212,7 @@
         <v>27.60000000000005</v>
       </c>
       <c r="K154" t="n">
-        <v>21.875</v>
+        <v>-3.703703703703616</v>
       </c>
       <c r="L154" t="n">
         <v>21.54</v>
@@ -8241,7 +8263,7 @@
         <v>27.70000000000005</v>
       </c>
       <c r="K155" t="n">
-        <v>20.63492063492058</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L155" t="n">
         <v>21.54</v>
@@ -8292,7 +8314,7 @@
         <v>28.00000000000005</v>
       </c>
       <c r="K156" t="n">
-        <v>15.15151515151515</v>
+        <v>-15.78947368421039</v>
       </c>
       <c r="L156" t="n">
         <v>21.45</v>
@@ -8343,7 +8365,7 @@
         <v>28.10000000000005</v>
       </c>
       <c r="K157" t="n">
-        <v>15.15151515151515</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L157" t="n">
         <v>21.40999999999999</v>
@@ -8394,7 +8416,7 @@
         <v>28.20000000000005</v>
       </c>
       <c r="K158" t="n">
-        <v>13.84615384615387</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L158" t="n">
         <v>21.35999999999999</v>
@@ -8445,7 +8467,7 @@
         <v>28.40000000000006</v>
       </c>
       <c r="K159" t="n">
-        <v>10.44776119402983</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>21.32999999999999</v>
@@ -8496,7 +8518,7 @@
         <v>28.40000000000006</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L160" t="n">
         <v>21.27999999999999</v>
@@ -8547,7 +8569,7 @@
         <v>28.60000000000006</v>
       </c>
       <c r="K161" t="n">
-        <v>3.225806451612944</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L161" t="n">
         <v>21.22</v>
@@ -8598,7 +8620,7 @@
         <v>28.60000000000006</v>
       </c>
       <c r="K162" t="n">
-        <v>-1.694915254237249</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L162" t="n">
         <v>21.16</v>
@@ -8649,7 +8671,7 @@
         <v>29.00000000000006</v>
       </c>
       <c r="K163" t="n">
-        <v>-25.92592592592592</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L163" t="n">
         <v>21.06</v>
@@ -8700,7 +8722,7 @@
         <v>29.00000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>-33.33333333333324</v>
+        <v>-53.84615384615346</v>
       </c>
       <c r="L164" t="n">
         <v>20.99999999999999</v>
@@ -8751,7 +8773,7 @@
         <v>29.10000000000006</v>
       </c>
       <c r="K165" t="n">
-        <v>-14.28571428571419</v>
+        <v>-27.27272727272704</v>
       </c>
       <c r="L165" t="n">
         <v>20.93999999999999</v>
@@ -8802,7 +8824,7 @@
         <v>29.10000000000006</v>
       </c>
       <c r="K166" t="n">
-        <v>-33.3333333333332</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L166" t="n">
         <v>20.91</v>
@@ -8853,7 +8875,7 @@
         <v>29.10000000000006</v>
       </c>
       <c r="K167" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L167" t="n">
         <v>20.89</v>
@@ -8904,7 +8926,7 @@
         <v>29.30000000000006</v>
       </c>
       <c r="K168" t="n">
-        <v>-20</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L168" t="n">
         <v>20.88</v>
@@ -8955,7 +8977,7 @@
         <v>29.90000000000006</v>
       </c>
       <c r="K169" t="n">
-        <v>-24.99999999999997</v>
+        <v>-33.33333333333318</v>
       </c>
       <c r="L169" t="n">
         <v>20.83</v>
@@ -9006,7 +9028,7 @@
         <v>30.10000000000007</v>
       </c>
       <c r="K170" t="n">
-        <v>-24.99999999999983</v>
+        <v>-33.33333333333318</v>
       </c>
       <c r="L170" t="n">
         <v>20.8</v>
@@ -9057,7 +9079,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K171" t="n">
-        <v>-39.99999999999984</v>
+        <v>-37.49999999999989</v>
       </c>
       <c r="L171" t="n">
         <v>20.74</v>
@@ -9108,7 +9130,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K172" t="n">
-        <v>-39.99999999999984</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L172" t="n">
         <v>20.68</v>
@@ -9159,7 +9181,7 @@
         <v>30.30000000000007</v>
       </c>
       <c r="K173" t="n">
-        <v>-41.9354838709676</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L173" t="n">
         <v>20.65</v>
@@ -9210,7 +9232,7 @@
         <v>30.50000000000007</v>
       </c>
       <c r="K174" t="n">
-        <v>-37.93103448275851</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L174" t="n">
         <v>20.6</v>
@@ -9261,7 +9283,7 @@
         <v>30.70000000000007</v>
       </c>
       <c r="K175" t="n">
-        <v>-33.33333333333318</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L175" t="n">
         <v>20.56</v>
@@ -9312,7 +9334,7 @@
         <v>30.80000000000006</v>
       </c>
       <c r="K176" t="n">
-        <v>-28.57142857142844</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L176" t="n">
         <v>20.51</v>
@@ -9363,7 +9385,7 @@
         <v>30.90000000000007</v>
       </c>
       <c r="K177" t="n">
-        <v>-28.57142857142844</v>
+        <v>-49.99999999999989</v>
       </c>
       <c r="L177" t="n">
         <v>20.45</v>
@@ -9414,7 +9436,7 @@
         <v>30.90000000000007</v>
       </c>
       <c r="K178" t="n">
-        <v>-33.33333333333325</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L178" t="n">
         <v>20.37</v>
@@ -9465,7 +9487,7 @@
         <v>31.10000000000007</v>
       </c>
       <c r="K179" t="n">
-        <v>-33.33333333333316</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L179" t="n">
         <v>20.32999999999999</v>
@@ -9516,7 +9538,7 @@
         <v>31.10000000000007</v>
       </c>
       <c r="K180" t="n">
-        <v>-33.33333333333316</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L180" t="n">
         <v>20.27</v>
@@ -9567,7 +9589,7 @@
         <v>31.10000000000007</v>
       </c>
       <c r="K181" t="n">
-        <v>-43.99999999999994</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L181" t="n">
         <v>20.22</v>
@@ -9618,7 +9640,7 @@
         <v>31.20000000000007</v>
       </c>
       <c r="K182" t="n">
-        <v>-46.15384615384611</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L182" t="n">
         <v>20.16</v>
@@ -9669,7 +9691,7 @@
         <v>31.20000000000007</v>
       </c>
       <c r="K183" t="n">
-        <v>-36.3636363636363</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L183" t="n">
         <v>20.11</v>
@@ -9720,7 +9742,7 @@
         <v>31.30000000000007</v>
       </c>
       <c r="K184" t="n">
-        <v>-30.43478260869551</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L184" t="n">
         <v>20.09</v>
@@ -9771,7 +9793,7 @@
         <v>31.60000000000007</v>
       </c>
       <c r="K185" t="n">
-        <v>-43.99999999999994</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L185" t="n">
         <v>20.02</v>
@@ -9822,7 +9844,7 @@
         <v>31.60000000000007</v>
       </c>
       <c r="K186" t="n">
-        <v>-43.99999999999994</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L186" t="n">
         <v>19.95999999999999</v>
@@ -9924,7 +9946,7 @@
         <v>31.90000000000007</v>
       </c>
       <c r="K188" t="n">
-        <v>-46.15384615384604</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L188" t="n">
         <v>19.89</v>
@@ -9975,7 +9997,7 @@
         <v>31.90000000000007</v>
       </c>
       <c r="K189" t="n">
-        <v>-29.99999999999984</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L189" t="n">
         <v>19.87</v>
@@ -10026,7 +10048,7 @@
         <v>32.30000000000007</v>
       </c>
       <c r="K190" t="n">
-        <v>-54.54545454545461</v>
+        <v>-50</v>
       </c>
       <c r="L190" t="n">
         <v>19.81</v>
@@ -10077,7 +10099,7 @@
         <v>32.40000000000007</v>
       </c>
       <c r="K191" t="n">
-        <v>-45.4545454545454</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L191" t="n">
         <v>19.76</v>
@@ -10128,7 +10150,7 @@
         <v>32.40000000000007</v>
       </c>
       <c r="K192" t="n">
-        <v>-45.4545454545454</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L192" t="n">
         <v>19.72</v>
@@ -10179,7 +10201,7 @@
         <v>32.50000000000007</v>
       </c>
       <c r="K193" t="n">
-        <v>-36.36363636363619</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L193" t="n">
         <v>19.69</v>
@@ -10230,7 +10252,7 @@
         <v>32.50000000000007</v>
       </c>
       <c r="K194" t="n">
-        <v>-29.99999999999984</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L194" t="n">
         <v>19.65</v>
@@ -10281,7 +10303,7 @@
         <v>32.70000000000007</v>
       </c>
       <c r="K195" t="n">
-        <v>-29.99999999999979</v>
+        <v>9.090909090909179</v>
       </c>
       <c r="L195" t="n">
         <v>19.66</v>
@@ -10332,7 +10354,7 @@
         <v>33.00000000000007</v>
       </c>
       <c r="K196" t="n">
-        <v>-36.3636363636363</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L196" t="n">
         <v>19.64</v>
@@ -10383,7 +10405,7 @@
         <v>33.10000000000007</v>
       </c>
       <c r="K197" t="n">
-        <v>-36.3636363636363</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>19.59</v>
@@ -10434,7 +10456,7 @@
         <v>33.20000000000007</v>
       </c>
       <c r="K198" t="n">
-        <v>-30.43478260869551</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L198" t="n">
         <v>19.56</v>
@@ -10485,7 +10507,7 @@
         <v>33.40000000000008</v>
       </c>
       <c r="K199" t="n">
-        <v>-30.43478260869547</v>
+        <v>-9.090909090908825</v>
       </c>
       <c r="L199" t="n">
         <v>19.51</v>
@@ -10536,7 +10558,7 @@
         <v>33.60000000000008</v>
       </c>
       <c r="K200" t="n">
-        <v>-19.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>19.52</v>
@@ -10587,7 +10609,7 @@
         <v>33.60000000000008</v>
       </c>
       <c r="K201" t="n">
-        <v>-19.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>19.52</v>
@@ -10638,7 +10660,7 @@
         <v>33.70000000000008</v>
       </c>
       <c r="K202" t="n">
-        <v>-11.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>19.53</v>
@@ -10689,7 +10711,7 @@
         <v>33.90000000000008</v>
       </c>
       <c r="K203" t="n">
-        <v>-18.5185185185184</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L203" t="n">
         <v>19.51</v>
@@ -10740,7 +10762,7 @@
         <v>34.00000000000009</v>
       </c>
       <c r="K204" t="n">
-        <v>-18.5185185185184</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L204" t="n">
         <v>19.5</v>
@@ -10791,7 +10813,7 @@
         <v>34.30000000000008</v>
       </c>
       <c r="K205" t="n">
-        <v>-18.51851851851843</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L205" t="n">
         <v>19.44</v>
@@ -10842,7 +10864,7 @@
         <v>34.60000000000008</v>
       </c>
       <c r="K206" t="n">
-        <v>-6.666666666666619</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L206" t="n">
         <v>19.44</v>
@@ -10893,7 +10915,7 @@
         <v>34.70000000000008</v>
       </c>
       <c r="K207" t="n">
-        <v>-17.24137931034475</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L207" t="n">
         <v>19.44</v>
@@ -10944,7 +10966,7 @@
         <v>34.70000000000008</v>
       </c>
       <c r="K208" t="n">
-        <v>-14.28571428571428</v>
+        <v>7.692307692307502</v>
       </c>
       <c r="L208" t="n">
         <v>19.43</v>
@@ -10995,7 +11017,7 @@
         <v>34.70000000000008</v>
       </c>
       <c r="K209" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L209" t="n">
         <v>19.44</v>
@@ -11046,7 +11068,7 @@
         <v>34.80000000000008</v>
       </c>
       <c r="K210" t="n">
-        <v>4.000000000000034</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>19.44</v>
@@ -11097,7 +11119,7 @@
         <v>35.20000000000008</v>
       </c>
       <c r="K211" t="n">
-        <v>-14.28571428571418</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>19.4</v>
@@ -11148,7 +11170,7 @@
         <v>35.40000000000008</v>
       </c>
       <c r="K212" t="n">
-        <v>-6.666666666666628</v>
+        <v>-6.666666666666556</v>
       </c>
       <c r="L212" t="n">
         <v>19.37</v>
@@ -11199,7 +11221,7 @@
         <v>35.50000000000008</v>
       </c>
       <c r="K213" t="n">
-        <v>-13.33333333333337</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L213" t="n">
         <v>19.35</v>
@@ -11250,7 +11272,7 @@
         <v>35.60000000000008</v>
       </c>
       <c r="K214" t="n">
-        <v>-16.12903225806447</v>
+        <v>-7.692307692307546</v>
       </c>
       <c r="L214" t="n">
         <v>19.31</v>
@@ -11301,7 +11323,7 @@
         <v>35.60000000000008</v>
       </c>
       <c r="K215" t="n">
-        <v>-24.13793103448269</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L215" t="n">
         <v>19.3</v>
@@ -11352,7 +11374,7 @@
         <v>35.90000000000008</v>
       </c>
       <c r="K216" t="n">
-        <v>-3.448275862069008</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>19.29</v>
@@ -11454,7 +11476,7 @@
         <v>35.90000000000008</v>
       </c>
       <c r="K218" t="n">
-        <v>-3.703703703703753</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>19.29</v>
@@ -11505,7 +11527,7 @@
         <v>35.90000000000008</v>
       </c>
       <c r="K219" t="n">
-        <v>3.999999999999915</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L219" t="n">
         <v>19.29</v>
@@ -11556,7 +11578,7 @@
         <v>36.00000000000007</v>
       </c>
       <c r="K220" t="n">
-        <v>-8.333333333333332</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L220" t="n">
         <v>19.27</v>
@@ -11607,7 +11629,7 @@
         <v>36.10000000000007</v>
       </c>
       <c r="K221" t="n">
-        <v>-12.00000000000006</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L221" t="n">
         <v>19.28</v>
@@ -11658,7 +11680,7 @@
         <v>36.10000000000007</v>
       </c>
       <c r="K222" t="n">
-        <v>-16.66666666666682</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>19.27</v>
@@ -11709,7 +11731,7 @@
         <v>36.20000000000007</v>
       </c>
       <c r="K223" t="n">
-        <v>-4.347826086956448</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L223" t="n">
         <v>19.28</v>
@@ -11760,7 +11782,7 @@
         <v>36.50000000000007</v>
       </c>
       <c r="K224" t="n">
-        <v>4.00000000000008</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L224" t="n">
         <v>19.33</v>
@@ -11811,7 +11833,7 @@
         <v>36.70000000000007</v>
       </c>
       <c r="K225" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>19.36</v>
@@ -11862,7 +11884,7 @@
         <v>36.70000000000007</v>
       </c>
       <c r="K226" t="n">
-        <v>-4.761904761904842</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>19.36</v>
@@ -11913,7 +11935,7 @@
         <v>36.80000000000007</v>
       </c>
       <c r="K227" t="n">
-        <v>-4.76190476190469</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L227" t="n">
         <v>19.35</v>
@@ -11964,7 +11986,7 @@
         <v>36.90000000000007</v>
       </c>
       <c r="K228" t="n">
-        <v>-9.090909090909104</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L228" t="n">
         <v>19.33</v>
@@ -12015,7 +12037,7 @@
         <v>37.00000000000007</v>
       </c>
       <c r="K229" t="n">
-        <v>-4.347826086956448</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>19.32</v>
@@ -12066,7 +12088,7 @@
         <v>37.10000000000007</v>
       </c>
       <c r="K230" t="n">
-        <v>-4.347826086956616</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L230" t="n">
         <v>19.33</v>
@@ -12117,7 +12139,7 @@
         <v>37.20000000000007</v>
       </c>
       <c r="K231" t="n">
-        <v>20.00000000000007</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L231" t="n">
         <v>19.36</v>
@@ -12168,7 +12190,7 @@
         <v>37.30000000000007</v>
       </c>
       <c r="K232" t="n">
-        <v>15.78947368421063</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L232" t="n">
         <v>19.4</v>
@@ -12219,7 +12241,7 @@
         <v>37.40000000000006</v>
       </c>
       <c r="K233" t="n">
-        <v>26.31578947368443</v>
+        <v>11.11111111111098</v>
       </c>
       <c r="L233" t="n">
         <v>19.44</v>
@@ -12270,7 +12292,7 @@
         <v>37.40000000000006</v>
       </c>
       <c r="K234" t="n">
-        <v>33.33333333333353</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L234" t="n">
         <v>19.45</v>
@@ -12321,7 +12343,7 @@
         <v>37.40000000000006</v>
       </c>
       <c r="K235" t="n">
-        <v>33.33333333333353</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L235" t="n">
         <v>19.48</v>
@@ -12372,7 +12394,7 @@
         <v>37.40000000000006</v>
       </c>
       <c r="K236" t="n">
-        <v>20.00000000000024</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L236" t="n">
         <v>19.50999999999999</v>
@@ -12423,7 +12445,7 @@
         <v>37.50000000000006</v>
       </c>
       <c r="K237" t="n">
-        <v>12.50000000000033</v>
+        <v>66.66666666666843</v>
       </c>
       <c r="L237" t="n">
         <v>19.53999999999999</v>
@@ -12474,7 +12496,7 @@
         <v>37.60000000000006</v>
       </c>
       <c r="K238" t="n">
-        <v>5.882352941176618</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L238" t="n">
         <v>19.56999999999999</v>
@@ -12525,7 +12547,7 @@
         <v>37.60000000000006</v>
       </c>
       <c r="K239" t="n">
-        <v>5.882352941176618</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L239" t="n">
         <v>19.58999999999999</v>
@@ -12576,7 +12598,7 @@
         <v>37.80000000000005</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L240" t="n">
         <v>19.57999999999999</v>
@@ -12627,7 +12649,7 @@
         <v>37.80000000000005</v>
       </c>
       <c r="K241" t="n">
-        <v>5.882352941176618</v>
+        <v>-60.00000000000185</v>
       </c>
       <c r="L241" t="n">
         <v>19.56</v>
@@ -12678,7 +12700,7 @@
         <v>37.80000000000005</v>
       </c>
       <c r="K242" t="n">
-        <v>5.882352941176618</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L242" t="n">
         <v>19.52999999999999</v>
@@ -12729,7 +12751,7 @@
         <v>37.80000000000005</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L243" t="n">
         <v>19.49</v>
@@ -12780,7 +12802,7 @@
         <v>37.80000000000005</v>
       </c>
       <c r="K244" t="n">
-        <v>-23.07692307692343</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L244" t="n">
         <v>19.45</v>
@@ -12831,7 +12853,7 @@
         <v>37.80000000000005</v>
       </c>
       <c r="K245" t="n">
-        <v>-9.090909090909062</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L245" t="n">
         <v>19.41</v>
@@ -12882,7 +12904,7 @@
         <v>38.00000000000006</v>
       </c>
       <c r="K246" t="n">
-        <v>7.692307692307902</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L246" t="n">
         <v>19.39</v>
@@ -12933,7 +12955,7 @@
         <v>38.10000000000006</v>
       </c>
       <c r="K247" t="n">
-        <v>7.692307692307587</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L247" t="n">
         <v>19.37</v>
@@ -12984,7 +13006,7 @@
         <v>38.20000000000006</v>
       </c>
       <c r="K248" t="n">
-        <v>7.69230769230786</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L248" t="n">
         <v>19.35</v>
@@ -13086,7 +13108,7 @@
         <v>38.20000000000006</v>
       </c>
       <c r="K250" t="n">
-        <v>-9.090909090908944</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>19.33000000000001</v>
@@ -13137,7 +13159,7 @@
         <v>38.20000000000006</v>
       </c>
       <c r="K251" t="n">
-        <v>-20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>19.33000000000001</v>
@@ -13188,7 +13210,7 @@
         <v>38.20000000000006</v>
       </c>
       <c r="K252" t="n">
-        <v>-33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>19.33000000000001</v>
@@ -13239,7 +13261,7 @@
         <v>38.30000000000006</v>
       </c>
       <c r="K253" t="n">
-        <v>-55.55555555555565</v>
+        <v>-20</v>
       </c>
       <c r="L253" t="n">
         <v>19.32</v>
@@ -13290,7 +13312,7 @@
         <v>38.40000000000006</v>
       </c>
       <c r="K254" t="n">
-        <v>-39.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>19.32</v>
@@ -13341,7 +13363,7 @@
         <v>38.40000000000006</v>
       </c>
       <c r="K255" t="n">
-        <v>-39.99999999999986</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L255" t="n">
         <v>19.32</v>
@@ -13392,7 +13414,7 @@
         <v>38.50000000000006</v>
       </c>
       <c r="K256" t="n">
-        <v>-27.27272727272748</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>19.31000000000001</v>
@@ -13443,7 +13465,7 @@
         <v>38.60000000000006</v>
       </c>
       <c r="K257" t="n">
-        <v>-9.090909090909207</v>
+        <v>50</v>
       </c>
       <c r="L257" t="n">
         <v>19.32</v>
@@ -13494,7 +13516,7 @@
         <v>38.70000000000006</v>
       </c>
       <c r="K258" t="n">
-        <v>-9.090909090909207</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L258" t="n">
         <v>19.33000000000001</v>
@@ -13545,7 +13567,7 @@
         <v>38.70000000000006</v>
       </c>
       <c r="K259" t="n">
-        <v>-9.090909090909207</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L259" t="n">
         <v>19.34</v>
@@ -13647,7 +13669,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K261" t="n">
-        <v>16.66666666666657</v>
+        <v>25</v>
       </c>
       <c r="L261" t="n">
         <v>19.36</v>
@@ -13698,7 +13720,7 @@
         <v>39.00000000000006</v>
       </c>
       <c r="K262" t="n">
-        <v>16.66666666666657</v>
+        <v>42.85714285714322</v>
       </c>
       <c r="L262" t="n">
         <v>19.38</v>
@@ -13749,7 +13771,7 @@
         <v>39.10000000000006</v>
       </c>
       <c r="K263" t="n">
-        <v>7.692307692307502</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L263" t="n">
         <v>19.4</v>
@@ -13800,7 +13822,7 @@
         <v>39.20000000000006</v>
       </c>
       <c r="K264" t="n">
-        <v>14.28571428571418</v>
+        <v>25</v>
       </c>
       <c r="L264" t="n">
         <v>19.42</v>
@@ -13851,7 +13873,7 @@
         <v>39.40000000000006</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L265" t="n">
         <v>19.42</v>
@@ -13953,7 +13975,7 @@
         <v>39.70000000000007</v>
       </c>
       <c r="K267" t="n">
-        <v>12.50000000000011</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L267" t="n">
         <v>19.44</v>
@@ -14004,7 +14026,7 @@
         <v>39.80000000000007</v>
       </c>
       <c r="K268" t="n">
-        <v>12.49999999999989</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L268" t="n">
         <v>19.45</v>
@@ -14055,7 +14077,7 @@
         <v>40.20000000000007</v>
       </c>
       <c r="K269" t="n">
-        <v>29.99999999999979</v>
+        <v>42.85714285714231</v>
       </c>
       <c r="L269" t="n">
         <v>19.5</v>
@@ -14106,7 +14128,7 @@
         <v>40.20000000000007</v>
       </c>
       <c r="K270" t="n">
-        <v>29.99999999999979</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L270" t="n">
         <v>19.56</v>
@@ -14157,7 +14179,7 @@
         <v>40.50000000000007</v>
       </c>
       <c r="K271" t="n">
-        <v>39.13043478260844</v>
+        <v>46.66666666666618</v>
       </c>
       <c r="L271" t="n">
         <v>19.63</v>
@@ -14208,7 +14230,7 @@
         <v>40.80000000000007</v>
       </c>
       <c r="K272" t="n">
-        <v>46.15384615384598</v>
+        <v>64.70588235294088</v>
       </c>
       <c r="L272" t="n">
         <v>19.73</v>
@@ -14259,7 +14281,7 @@
         <v>41.00000000000007</v>
       </c>
       <c r="K273" t="n">
-        <v>55.55555555555534</v>
+        <v>66.6666666666662</v>
       </c>
       <c r="L273" t="n">
         <v>19.86</v>
@@ -14310,7 +14332,7 @@
         <v>41.10000000000007</v>
       </c>
       <c r="K274" t="n">
-        <v>48.14814814814812</v>
+        <v>76.47058823529403</v>
       </c>
       <c r="L274" t="n">
         <v>19.97</v>
@@ -14361,7 +14383,7 @@
         <v>41.40000000000006</v>
       </c>
       <c r="K275" t="n">
-        <v>33.33333333333333</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L275" t="n">
         <v>20.07</v>
@@ -14412,7 +14434,7 @@
         <v>41.50000000000006</v>
       </c>
       <c r="K276" t="n">
-        <v>33.33333333333333</v>
+        <v>44.44444444444453</v>
       </c>
       <c r="L276" t="n">
         <v>20.16</v>
@@ -14463,7 +14485,7 @@
         <v>41.50000000000006</v>
       </c>
       <c r="K277" t="n">
-        <v>31.03448275862066</v>
+        <v>52.9411764705885</v>
       </c>
       <c r="L277" t="n">
         <v>20.24</v>
@@ -14514,7 +14536,7 @@
         <v>41.70000000000006</v>
       </c>
       <c r="K278" t="n">
-        <v>40.0000000000001</v>
+        <v>46.66666666666708</v>
       </c>
       <c r="L278" t="n">
         <v>20.35</v>
@@ -14565,7 +14587,7 @@
         <v>42.00000000000006</v>
       </c>
       <c r="K279" t="n">
-        <v>27.27272727272736</v>
+        <v>22.22222222222246</v>
       </c>
       <c r="L279" t="n">
         <v>20.39</v>
@@ -14616,7 +14638,7 @@
         <v>42.10000000000005</v>
       </c>
       <c r="K280" t="n">
-        <v>33.3333333333333</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L280" t="n">
         <v>20.44</v>
@@ -14667,7 +14689,7 @@
         <v>42.20000000000005</v>
       </c>
       <c r="K281" t="n">
-        <v>25.00000000000011</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L281" t="n">
         <v>20.45</v>
@@ -14718,7 +14740,7 @@
         <v>42.20000000000005</v>
       </c>
       <c r="K282" t="n">
-        <v>25.00000000000011</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L282" t="n">
         <v>20.43</v>
@@ -14769,7 +14791,7 @@
         <v>42.20000000000005</v>
       </c>
       <c r="K283" t="n">
-        <v>29.03225806451632</v>
+        <v>-27.27272727272783</v>
       </c>
       <c r="L283" t="n">
         <v>20.39</v>
@@ -14820,7 +14842,7 @@
         <v>42.40000000000005</v>
       </c>
       <c r="K284" t="n">
-        <v>18.75000000000011</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L284" t="n">
         <v>20.34</v>
@@ -14871,7 +14893,7 @@
         <v>42.60000000000005</v>
       </c>
       <c r="K285" t="n">
-        <v>18.75</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L285" t="n">
         <v>20.3</v>
@@ -14922,7 +14944,7 @@
         <v>42.90000000000005</v>
       </c>
       <c r="K286" t="n">
-        <v>21.2121212121213</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L286" t="n">
         <v>20.28</v>
@@ -14973,7 +14995,7 @@
         <v>43.20000000000005</v>
       </c>
       <c r="K287" t="n">
-        <v>8.571428571428543</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L287" t="n">
         <v>20.23</v>
@@ -15024,7 +15046,7 @@
         <v>43.40000000000005</v>
       </c>
       <c r="K288" t="n">
-        <v>16.6666666666668</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L288" t="n">
         <v>20.18</v>
@@ -15075,7 +15097,7 @@
         <v>43.40000000000005</v>
       </c>
       <c r="K289" t="n">
-        <v>6.250000000000125</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L289" t="n">
         <v>20.16</v>
@@ -15126,7 +15148,7 @@
         <v>43.50000000000004</v>
       </c>
       <c r="K290" t="n">
-        <v>9.090909090909179</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L290" t="n">
         <v>20.14</v>
@@ -15177,7 +15199,7 @@
         <v>43.70000000000005</v>
       </c>
       <c r="K291" t="n">
-        <v>-6.250000000000028</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L291" t="n">
         <v>20.11</v>
@@ -15228,7 +15250,7 @@
         <v>43.90000000000005</v>
       </c>
       <c r="K292" t="n">
-        <v>-22.58064516129044</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L292" t="n">
         <v>20.06</v>
@@ -15279,7 +15301,7 @@
         <v>44.00000000000004</v>
       </c>
       <c r="K293" t="n">
-        <v>-26.66666666666694</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L293" t="n">
         <v>20.02</v>
@@ -15330,7 +15352,7 @@
         <v>44.00000000000004</v>
       </c>
       <c r="K294" t="n">
-        <v>-24.13793103448305</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>20</v>
@@ -15381,7 +15403,7 @@
         <v>44.10000000000004</v>
       </c>
       <c r="K295" t="n">
-        <v>-11.11111111111121</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L295" t="n">
         <v>20.01</v>
@@ -15432,7 +15454,7 @@
         <v>44.10000000000004</v>
       </c>
       <c r="K296" t="n">
-        <v>-15.3846153846154</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L296" t="n">
         <v>19.99</v>
@@ -15483,7 +15505,7 @@
         <v>44.10000000000004</v>
       </c>
       <c r="K297" t="n">
-        <v>-15.3846153846154</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L297" t="n">
         <v>20</v>
@@ -15534,7 +15556,7 @@
         <v>44.30000000000004</v>
       </c>
       <c r="K298" t="n">
-        <v>-15.38461538461559</v>
+        <v>11.11111111111098</v>
       </c>
       <c r="L298" t="n">
         <v>20.01</v>
@@ -15585,7 +15607,7 @@
         <v>44.30000000000004</v>
       </c>
       <c r="K299" t="n">
-        <v>-4.347826086956616</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>20.02</v>
@@ -15636,7 +15658,7 @@
         <v>44.30000000000004</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.090909090909104</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L300" t="n">
         <v>20.02</v>
@@ -15687,7 +15709,7 @@
         <v>44.50000000000004</v>
       </c>
       <c r="K301" t="n">
-        <v>4.347826086956434</v>
+        <v>100.0000000000006</v>
       </c>
       <c r="L301" t="n">
         <v>20.06</v>
@@ -15738,7 +15760,7 @@
         <v>44.80000000000004</v>
       </c>
       <c r="K302" t="n">
-        <v>15.38461538461536</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L302" t="n">
         <v>20.15</v>
@@ -15789,7 +15811,7 @@
         <v>45.00000000000004</v>
       </c>
       <c r="K303" t="n">
-        <v>21.42857142857137</v>
+        <v>100</v>
       </c>
       <c r="L303" t="n">
         <v>20.24999999999999</v>
@@ -15840,7 +15862,7 @@
         <v>45.20000000000005</v>
       </c>
       <c r="K304" t="n">
-        <v>21.42857142857137</v>
+        <v>63.63636363636349</v>
       </c>
       <c r="L304" t="n">
         <v>20.32999999999999</v>
@@ -15891,7 +15913,7 @@
         <v>45.30000000000005</v>
       </c>
       <c r="K305" t="n">
-        <v>33.33333333333346</v>
+        <v>66.66666666666656</v>
       </c>
       <c r="L305" t="n">
         <v>20.40999999999999</v>
@@ -15942,7 +15964,7 @@
         <v>45.30000000000005</v>
       </c>
       <c r="K306" t="n">
-        <v>25.00000000000007</v>
+        <v>66.66666666666656</v>
       </c>
       <c r="L306" t="n">
         <v>20.48999999999999</v>
@@ -15993,7 +16015,7 @@
         <v>45.30000000000005</v>
       </c>
       <c r="K307" t="n">
-        <v>42.85714285714293</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L307" t="n">
         <v>20.57</v>
@@ -16044,7 +16066,7 @@
         <v>45.50000000000004</v>
       </c>
       <c r="K308" t="n">
-        <v>23.80952380952387</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L308" t="n">
         <v>20.61</v>
@@ -16095,7 +16117,7 @@
         <v>45.60000000000004</v>
       </c>
       <c r="K309" t="n">
-        <v>18.18181818181815</v>
+        <v>23.07692307692306</v>
       </c>
       <c r="L309" t="n">
         <v>20.64</v>
@@ -16146,7 +16168,7 @@
         <v>45.70000000000005</v>
       </c>
       <c r="K310" t="n">
-        <v>9.090909090909047</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>20.66</v>
@@ -16197,7 +16219,7 @@
         <v>45.90000000000005</v>
       </c>
       <c r="K311" t="n">
-        <v>27.27272727272731</v>
+        <v>-9.090909090908825</v>
       </c>
       <c r="L311" t="n">
         <v>20.68</v>
@@ -16248,7 +16270,7 @@
         <v>46.10000000000005</v>
       </c>
       <c r="K312" t="n">
-        <v>27.27272727272714</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L312" t="n">
         <v>20.65</v>
@@ -16299,7 +16321,7 @@
         <v>46.10000000000005</v>
       </c>
       <c r="K313" t="n">
-        <v>23.80952380952371</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L313" t="n">
         <v>20.6</v>
@@ -16350,7 +16372,7 @@
         <v>46.10000000000005</v>
       </c>
       <c r="K314" t="n">
-        <v>23.80952380952371</v>
+        <v>-50</v>
       </c>
       <c r="L314" t="n">
         <v>20.57</v>
@@ -16401,7 +16423,7 @@
         <v>46.10000000000005</v>
       </c>
       <c r="K315" t="n">
-        <v>19.99999999999986</v>
+        <v>-50</v>
       </c>
       <c r="L315" t="n">
         <v>20.53</v>
@@ -16452,7 +16474,7 @@
         <v>46.10000000000005</v>
       </c>
       <c r="K316" t="n">
-        <v>19.99999999999986</v>
+        <v>-50</v>
       </c>
       <c r="L316" t="n">
         <v>20.49</v>
@@ -16503,7 +16525,7 @@
         <v>46.20000000000005</v>
       </c>
       <c r="K317" t="n">
-        <v>14.28571428571431</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L317" t="n">
         <v>20.44</v>
@@ -16554,7 +16576,7 @@
         <v>46.20000000000005</v>
       </c>
       <c r="K318" t="n">
-        <v>5.263157894736901</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L318" t="n">
         <v>20.41</v>
@@ -16605,7 +16627,7 @@
         <v>46.20000000000005</v>
       </c>
       <c r="K319" t="n">
-        <v>5.263157894736901</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L319" t="n">
         <v>20.39</v>
@@ -16656,7 +16678,7 @@
         <v>46.30000000000004</v>
       </c>
       <c r="K320" t="n">
-        <v>9.999999999999964</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L320" t="n">
         <v>20.39</v>
@@ -16707,7 +16729,7 @@
         <v>46.50000000000004</v>
       </c>
       <c r="K321" t="n">
-        <v>-9.999999999999964</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L321" t="n">
         <v>20.35</v>
@@ -16758,7 +16780,7 @@
         <v>46.50000000000004</v>
       </c>
       <c r="K322" t="n">
-        <v>-29.41176470588231</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L322" t="n">
         <v>20.33</v>
@@ -16809,7 +16831,7 @@
         <v>46.60000000000004</v>
       </c>
       <c r="K323" t="n">
-        <v>-50</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L323" t="n">
         <v>20.3</v>
@@ -16860,7 +16882,7 @@
         <v>46.60000000000004</v>
       </c>
       <c r="K324" t="n">
-        <v>-42.85714285714297</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L324" t="n">
         <v>20.27</v>
@@ -16911,7 +16933,7 @@
         <v>46.70000000000004</v>
       </c>
       <c r="K325" t="n">
-        <v>-57.14285714285754</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L325" t="n">
         <v>20.23</v>
@@ -16962,7 +16984,7 @@
         <v>46.70000000000004</v>
       </c>
       <c r="K326" t="n">
-        <v>-57.14285714285754</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L326" t="n">
         <v>20.19</v>
@@ -17013,7 +17035,7 @@
         <v>46.90000000000003</v>
       </c>
       <c r="K327" t="n">
-        <v>-37.50000000000039</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L327" t="n">
         <v>20.18</v>
@@ -17064,7 +17086,7 @@
         <v>46.90000000000003</v>
       </c>
       <c r="K328" t="n">
-        <v>-28.5714285714289</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L328" t="n">
         <v>20.16999999999999</v>
@@ -17115,7 +17137,7 @@
         <v>46.90000000000003</v>
       </c>
       <c r="K329" t="n">
-        <v>-23.07692307692331</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L329" t="n">
         <v>20.15999999999999</v>
@@ -17166,7 +17188,7 @@
         <v>47.00000000000004</v>
       </c>
       <c r="K330" t="n">
-        <v>-7.692307692307587</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L330" t="n">
         <v>20.14999999999999</v>
@@ -17217,7 +17239,7 @@
         <v>47.10000000000004</v>
       </c>
       <c r="K331" t="n">
-        <v>-33.33333333333383</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>20.14999999999999</v>
@@ -17268,7 +17290,7 @@
         <v>47.40000000000003</v>
       </c>
       <c r="K332" t="n">
-        <v>7.692307692307902</v>
+        <v>50</v>
       </c>
       <c r="L332" t="n">
         <v>20.17999999999999</v>
@@ -17319,7 +17341,7 @@
         <v>47.40000000000003</v>
       </c>
       <c r="K333" t="n">
-        <v>7.692307692307902</v>
+        <v>50</v>
       </c>
       <c r="L333" t="n">
         <v>20.21999999999999</v>
@@ -17370,7 +17392,7 @@
         <v>47.60000000000004</v>
       </c>
       <c r="K334" t="n">
-        <v>20.00000000000024</v>
+        <v>77.77777777777783</v>
       </c>
       <c r="L334" t="n">
         <v>20.27999999999999</v>
@@ -17421,7 +17443,7 @@
         <v>47.60000000000004</v>
       </c>
       <c r="K335" t="n">
-        <v>20.00000000000024</v>
+        <v>77.77777777777783</v>
       </c>
       <c r="L335" t="n">
         <v>20.34999999999999</v>
@@ -17472,7 +17494,7 @@
         <v>47.60000000000004</v>
       </c>
       <c r="K336" t="n">
-        <v>20.00000000000024</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L336" t="n">
         <v>20.41999999999999</v>
@@ -17523,7 +17545,7 @@
         <v>47.80000000000004</v>
       </c>
       <c r="K337" t="n">
-        <v>37.5</v>
+        <v>77.77777777777722</v>
       </c>
       <c r="L337" t="n">
         <v>20.48999999999999</v>
@@ -17574,7 +17596,7 @@
         <v>47.80000000000004</v>
       </c>
       <c r="K338" t="n">
-        <v>37.5</v>
+        <v>77.77777777777722</v>
       </c>
       <c r="L338" t="n">
         <v>20.56</v>
@@ -17625,7 +17647,7 @@
         <v>47.80000000000004</v>
       </c>
       <c r="K339" t="n">
-        <v>37.5</v>
+        <v>74.99999999999933</v>
       </c>
       <c r="L339" t="n">
         <v>20.63</v>
@@ -17676,7 +17698,7 @@
         <v>48.00000000000004</v>
       </c>
       <c r="K340" t="n">
-        <v>17.64705882352942</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L340" t="n">
         <v>20.66999999999999</v>
@@ -17727,7 +17749,7 @@
         <v>48.10000000000004</v>
       </c>
       <c r="K341" t="n">
-        <v>37.50000000000006</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L341" t="n">
         <v>20.73</v>
@@ -17778,7 +17800,7 @@
         <v>48.10000000000004</v>
       </c>
       <c r="K342" t="n">
-        <v>37.50000000000006</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L342" t="n">
         <v>20.76</v>
@@ -17829,7 +17851,7 @@
         <v>48.30000000000004</v>
       </c>
       <c r="K343" t="n">
-        <v>52.94117647058806</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L343" t="n">
         <v>20.81</v>
@@ -17880,7 +17902,7 @@
         <v>48.50000000000004</v>
       </c>
       <c r="K344" t="n">
-        <v>36.84210526315775</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L344" t="n">
         <v>20.82</v>
@@ -17931,7 +17953,7 @@
         <v>48.50000000000004</v>
       </c>
       <c r="K345" t="n">
-        <v>44.44444444444438</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L345" t="n">
         <v>20.83</v>
@@ -17982,7 +18004,7 @@
         <v>48.50000000000004</v>
       </c>
       <c r="K346" t="n">
-        <v>44.44444444444438</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L346" t="n">
         <v>20.84</v>
@@ -18033,7 +18055,7 @@
         <v>48.50000000000004</v>
       </c>
       <c r="K347" t="n">
-        <v>37.49999999999989</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L347" t="n">
         <v>20.83000000000001</v>
@@ -18084,7 +18106,7 @@
         <v>48.80000000000004</v>
       </c>
       <c r="K348" t="n">
-        <v>15.78947368421052</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L348" t="n">
         <v>20.79</v>
@@ -18135,7 +18157,7 @@
         <v>48.80000000000004</v>
       </c>
       <c r="K349" t="n">
-        <v>15.78947368421052</v>
+        <v>-25</v>
       </c>
       <c r="L349" t="n">
         <v>20.75</v>
@@ -18186,7 +18208,7 @@
         <v>48.80000000000004</v>
       </c>
       <c r="K350" t="n">
-        <v>11.11111111111104</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L350" t="n">
         <v>20.73</v>
@@ -18237,7 +18259,7 @@
         <v>48.80000000000004</v>
       </c>
       <c r="K351" t="n">
-        <v>17.64705882352942</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L351" t="n">
         <v>20.7</v>
@@ -18288,7 +18310,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K352" t="n">
-        <v>6.66666666666673</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L352" t="n">
         <v>20.68</v>
@@ -18339,7 +18361,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K353" t="n">
-        <v>6.66666666666673</v>
+        <v>-50</v>
       </c>
       <c r="L353" t="n">
         <v>20.64</v>
@@ -18390,7 +18412,7 @@
         <v>48.90000000000004</v>
       </c>
       <c r="K354" t="n">
-        <v>-7.692307692307502</v>
+        <v>-50</v>
       </c>
       <c r="L354" t="n">
         <v>20.62</v>
@@ -18441,7 +18463,7 @@
         <v>49.00000000000004</v>
       </c>
       <c r="K355" t="n">
-        <v>-14.28571428571418</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L355" t="n">
         <v>20.59</v>
@@ -18492,7 +18514,7 @@
         <v>49.00000000000004</v>
       </c>
       <c r="K356" t="n">
-        <v>-14.28571428571418</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L356" t="n">
         <v>20.56</v>
@@ -18543,7 +18565,7 @@
         <v>49.00000000000004</v>
       </c>
       <c r="K357" t="n">
-        <v>-33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>20.52999999999999</v>
@@ -18594,7 +18616,7 @@
         <v>49.10000000000004</v>
       </c>
       <c r="K358" t="n">
-        <v>-38.46153846153834</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>20.52</v>
@@ -18645,7 +18667,7 @@
         <v>49.20000000000005</v>
       </c>
       <c r="K359" t="n">
-        <v>-42.85714285714253</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L359" t="n">
         <v>20.5</v>
@@ -18696,7 +18718,7 @@
         <v>49.30000000000004</v>
       </c>
       <c r="K360" t="n">
-        <v>-23.07692307692318</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L360" t="n">
         <v>20.49</v>
@@ -18747,7 +18769,7 @@
         <v>49.40000000000003</v>
       </c>
       <c r="K361" t="n">
-        <v>-38.46153846153876</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L361" t="n">
         <v>20.47</v>
@@ -18798,7 +18820,7 @@
         <v>49.50000000000004</v>
       </c>
       <c r="K362" t="n">
-        <v>-42.85714285714322</v>
+        <v>-66.66666666666765</v>
       </c>
       <c r="L362" t="n">
         <v>20.43</v>
@@ -18849,7 +18871,7 @@
         <v>49.70000000000003</v>
       </c>
       <c r="K363" t="n">
-        <v>-42.85714285714322</v>
+        <v>-25.00000000000067</v>
       </c>
       <c r="L363" t="n">
         <v>20.41</v>
@@ -18900,7 +18922,7 @@
         <v>49.70000000000003</v>
       </c>
       <c r="K364" t="n">
-        <v>-33.33333333333383</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L364" t="n">
         <v>20.39</v>
@@ -18951,7 +18973,7 @@
         <v>49.70000000000003</v>
       </c>
       <c r="K365" t="n">
-        <v>-33.33333333333383</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L365" t="n">
         <v>20.38</v>
@@ -19002,7 +19024,7 @@
         <v>49.90000000000003</v>
       </c>
       <c r="K366" t="n">
-        <v>-42.85714285714322</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L366" t="n">
         <v>20.35</v>
@@ -19053,7 +19075,7 @@
         <v>50.20000000000003</v>
       </c>
       <c r="K367" t="n">
-        <v>-52.94117647058872</v>
+        <v>-45.45454545454598</v>
       </c>
       <c r="L367" t="n">
         <v>20.29</v>
@@ -19104,7 +19126,7 @@
         <v>50.80000000000003</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>12.50000000000006</v>
       </c>
       <c r="L368" t="n">
         <v>20.3</v>
@@ -19155,7 +19177,7 @@
         <v>51.20000000000003</v>
       </c>
       <c r="K369" t="n">
-        <v>-16.66666666666666</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L369" t="n">
         <v>20.28</v>
@@ -19206,7 +19228,7 @@
         <v>51.40000000000003</v>
       </c>
       <c r="K370" t="n">
-        <v>-7.692307692307682</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>20.27</v>
@@ -19257,7 +19279,7 @@
         <v>51.40000000000003</v>
       </c>
       <c r="K371" t="n">
-        <v>-7.692307692307682</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L371" t="n">
         <v>20.27</v>
@@ -19308,7 +19330,7 @@
         <v>51.40000000000003</v>
       </c>
       <c r="K372" t="n">
-        <v>-12.00000000000006</v>
+        <v>-5.882352941176335</v>
       </c>
       <c r="L372" t="n">
         <v>20.28</v>
@@ -19359,7 +19381,7 @@
         <v>51.90000000000003</v>
       </c>
       <c r="K373" t="n">
-        <v>-26.66666666666676</v>
+        <v>-27.27272727272714</v>
       </c>
       <c r="L373" t="n">
         <v>20.22</v>
@@ -19410,7 +19432,7 @@
         <v>52.10000000000004</v>
       </c>
       <c r="K374" t="n">
-        <v>-18.75000000000007</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L374" t="n">
         <v>20.18</v>
@@ -19461,7 +19483,7 @@
         <v>52.20000000000004</v>
       </c>
       <c r="K375" t="n">
-        <v>-12.49999999999997</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L375" t="n">
         <v>20.15</v>
@@ -19512,7 +19534,7 @@
         <v>52.30000000000004</v>
       </c>
       <c r="K376" t="n">
-        <v>-9.09090909090912</v>
+        <v>14.28571428571426</v>
       </c>
       <c r="L376" t="n">
         <v>20.15</v>
@@ -19563,7 +19585,7 @@
         <v>52.60000000000004</v>
       </c>
       <c r="K377" t="n">
-        <v>-16.66666666666673</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>20.15</v>
@@ -19614,7 +19636,7 @@
         <v>52.60000000000004</v>
       </c>
       <c r="K378" t="n">
-        <v>-14.28571428571431</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L378" t="n">
         <v>20.09</v>
@@ -19665,7 +19687,7 @@
         <v>52.60000000000004</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.76470588235303</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L379" t="n">
         <v>20.07</v>
@@ -19716,7 +19738,7 @@
         <v>52.80000000000004</v>
       </c>
       <c r="K380" t="n">
-        <v>-19.99999999999998</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L380" t="n">
         <v>20.01</v>
@@ -19767,7 +19789,7 @@
         <v>53.00000000000004</v>
       </c>
       <c r="K381" t="n">
-        <v>-11.11111111111114</v>
+        <v>-25</v>
       </c>
       <c r="L381" t="n">
         <v>19.97</v>
@@ -19818,7 +19840,7 @@
         <v>53.00000000000004</v>
       </c>
       <c r="K382" t="n">
-        <v>-8.571428571428575</v>
+        <v>9.090909090908825</v>
       </c>
       <c r="L382" t="n">
         <v>19.93</v>
@@ -19869,7 +19891,7 @@
         <v>53.20000000000005</v>
       </c>
       <c r="K383" t="n">
-        <v>-8.571428571428456</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L383" t="n">
         <v>19.96</v>
@@ -19920,7 +19942,7 @@
         <v>53.60000000000005</v>
       </c>
       <c r="K384" t="n">
-        <v>-17.94871794871784</v>
+        <v>-28.57142857142846</v>
       </c>
       <c r="L384" t="n">
         <v>19.93</v>
@@ -19971,7 +19993,7 @@
         <v>53.90000000000005</v>
       </c>
       <c r="K385" t="n">
-        <v>-9.523809523809451</v>
+        <v>-12.49999999999989</v>
       </c>
       <c r="L385" t="n">
         <v>19.91999999999999</v>
@@ -20022,7 +20044,7 @@
         <v>53.90000000000005</v>
       </c>
       <c r="K386" t="n">
-        <v>-4.999999999999964</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L386" t="n">
         <v>19.9</v>
@@ -20073,7 +20095,7 @@
         <v>53.90000000000005</v>
       </c>
       <c r="K387" t="n">
-        <v>2.702702702702728</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L387" t="n">
         <v>19.91</v>
@@ -20124,7 +20146,7 @@
         <v>54.00000000000005</v>
       </c>
       <c r="K388" t="n">
-        <v>-12.49999999999989</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L388" t="n">
         <v>19.93</v>
@@ -20175,7 +20197,7 @@
         <v>54.00000000000005</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L389" t="n">
         <v>19.95</v>
@@ -20226,7 +20248,7 @@
         <v>54.00000000000005</v>
       </c>
       <c r="K390" t="n">
-        <v>-7.692307692307619</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L390" t="n">
         <v>19.98999999999999</v>
@@ -20277,7 +20299,7 @@
         <v>54.10000000000005</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.11111111111107</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L391" t="n">
         <v>19.99999999999999</v>
@@ -20328,7 +20350,7 @@
         <v>54.10000000000005</v>
       </c>
       <c r="K392" t="n">
-        <v>-11.11111111111107</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L392" t="n">
         <v>20.00999999999999</v>
@@ -20379,7 +20401,7 @@
         <v>54.20000000000005</v>
       </c>
       <c r="K393" t="n">
-        <v>4.347826086956394</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L393" t="n">
         <v>19.98999999999999</v>
@@ -20430,7 +20452,7 @@
         <v>54.40000000000006</v>
       </c>
       <c r="K394" t="n">
-        <v>4.347826086956549</v>
+        <v>20</v>
       </c>
       <c r="L394" t="n">
         <v>20.02999999999999</v>
@@ -20481,7 +20503,7 @@
         <v>54.40000000000006</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L395" t="n">
         <v>20.04</v>
@@ -20532,7 +20554,7 @@
         <v>54.40000000000006</v>
       </c>
       <c r="K396" t="n">
-        <v>-4.761904761904625</v>
+        <v>20</v>
       </c>
       <c r="L396" t="n">
         <v>20.04999999999999</v>
@@ -20583,7 +20605,7 @@
         <v>54.50000000000006</v>
       </c>
       <c r="K397" t="n">
-        <v>5.263157894736862</v>
+        <v>-20</v>
       </c>
       <c r="L397" t="n">
         <v>20.04999999999999</v>
@@ -20634,7 +20656,7 @@
         <v>54.50000000000006</v>
       </c>
       <c r="K398" t="n">
-        <v>5.263157894736862</v>
+        <v>-20</v>
       </c>
       <c r="L398" t="n">
         <v>20.04</v>
@@ -20685,7 +20707,7 @@
         <v>54.70000000000006</v>
       </c>
       <c r="K399" t="n">
-        <v>-4.761904761904609</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L399" t="n">
         <v>20.01</v>
@@ -20736,7 +20758,7 @@
         <v>54.90000000000006</v>
       </c>
       <c r="K400" t="n">
-        <v>14.28571428571417</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>20</v>
@@ -20787,7 +20809,7 @@
         <v>54.90000000000006</v>
       </c>
       <c r="K401" t="n">
-        <v>5.263157894736862</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>20</v>
@@ -20838,7 +20860,7 @@
         <v>54.90000000000006</v>
       </c>
       <c r="K402" t="n">
-        <v>5.263157894736862</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L402" t="n">
         <v>20</v>
@@ -20889,7 +20911,7 @@
         <v>54.90000000000006</v>
       </c>
       <c r="K403" t="n">
-        <v>-5.882352941176496</v>
+        <v>-20</v>
       </c>
       <c r="L403" t="n">
         <v>20.01</v>
@@ -20940,7 +20962,7 @@
         <v>54.90000000000006</v>
       </c>
       <c r="K404" t="n">
-        <v>23.07692307692293</v>
+        <v>-20</v>
       </c>
       <c r="L404" t="n">
         <v>20</v>
@@ -20991,7 +21013,7 @@
         <v>54.90000000000006</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L405" t="n">
         <v>19.99</v>
@@ -21042,7 +21064,7 @@
         <v>55.00000000000006</v>
       </c>
       <c r="K406" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L406" t="n">
         <v>19.97</v>
@@ -21093,7 +21115,7 @@
         <v>55.00000000000006</v>
       </c>
       <c r="K407" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L407" t="n">
         <v>19.96</v>
@@ -21144,7 +21166,7 @@
         <v>55.10000000000007</v>
       </c>
       <c r="K408" t="n">
-        <v>-9.090909090909092</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L408" t="n">
         <v>19.96</v>
@@ -21195,7 +21217,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K409" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L409" t="n">
         <v>19.99</v>
@@ -21246,7 +21268,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L410" t="n">
         <v>20</v>
@@ -21297,7 +21319,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K411" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>20.01</v>
@@ -21348,7 +21370,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K412" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L412" t="n">
         <v>20.02</v>
@@ -21399,7 +21421,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K413" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>20.02999999999999</v>
@@ -21450,7 +21472,7 @@
         <v>55.20000000000007</v>
       </c>
       <c r="K414" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L414" t="n">
         <v>20.04</v>
@@ -21501,7 +21523,7 @@
         <v>56.00000000000006</v>
       </c>
       <c r="K415" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L415" t="n">
         <v>20.13</v>
@@ -21552,7 +21574,7 @@
         <v>56.20000000000007</v>
       </c>
       <c r="K416" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L416" t="n">
         <v>20.24999999999999</v>
@@ -21603,7 +21625,7 @@
         <v>56.40000000000007</v>
       </c>
       <c r="K417" t="n">
-        <v>47.36842105263118</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L417" t="n">
         <v>20.34999999999999</v>
@@ -21654,7 +21676,7 @@
         <v>56.70000000000007</v>
       </c>
       <c r="K418" t="n">
-        <v>54.54545454545408</v>
+        <v>73.33333333333285</v>
       </c>
       <c r="L418" t="n">
         <v>20.46999999999999</v>
@@ -21705,7 +21727,7 @@
         <v>56.80000000000008</v>
       </c>
       <c r="K419" t="n">
-        <v>71.42857142857089</v>
+        <v>74.99999999999956</v>
       </c>
       <c r="L419" t="n">
         <v>20.59</v>
@@ -21756,7 +21778,7 @@
         <v>56.90000000000008</v>
       </c>
       <c r="K420" t="n">
-        <v>69.99999999999943</v>
+        <v>76.4705882352935</v>
       </c>
       <c r="L420" t="n">
         <v>20.72</v>
@@ -21807,7 +21829,7 @@
         <v>57.00000000000008</v>
       </c>
       <c r="K421" t="n">
-        <v>71.42857142857089</v>
+        <v>77.77777777777722</v>
       </c>
       <c r="L421" t="n">
         <v>20.86</v>
@@ -21858,7 +21880,7 @@
         <v>57.30000000000008</v>
       </c>
       <c r="K422" t="n">
-        <v>74.99999999999942</v>
+        <v>80.95238095238032</v>
       </c>
       <c r="L422" t="n">
         <v>21.03</v>
@@ -21909,7 +21931,7 @@
         <v>57.40000000000008</v>
       </c>
       <c r="K423" t="n">
-        <v>75.99999999999952</v>
+        <v>81.81818181818133</v>
       </c>
       <c r="L423" t="n">
         <v>21.21</v>
@@ -21960,7 +21982,7 @@
         <v>57.50000000000007</v>
       </c>
       <c r="K424" t="n">
-        <v>69.23076923076903</v>
+        <v>59.99999999999985</v>
       </c>
       <c r="L424" t="n">
         <v>21.38</v>
@@ -22011,7 +22033,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K425" t="n">
-        <v>75.75757575757549</v>
+        <v>69.99999999999969</v>
       </c>
       <c r="L425" t="n">
         <v>21.54</v>
@@ -22062,7 +22084,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K426" t="n">
-        <v>81.24999999999979</v>
+        <v>88.88888888888876</v>
       </c>
       <c r="L426" t="n">
         <v>21.68</v>
@@ -22113,7 +22135,7 @@
         <v>58.50000000000007</v>
       </c>
       <c r="K427" t="n">
-        <v>65.71428571428561</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L427" t="n">
         <v>21.81</v>
@@ -22164,7 +22186,7 @@
         <v>58.60000000000007</v>
       </c>
       <c r="K428" t="n">
-        <v>65.71428571428561</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L428" t="n">
         <v>21.92</v>
@@ -22215,7 +22237,7 @@
         <v>58.60000000000007</v>
       </c>
       <c r="K429" t="n">
-        <v>64.70588235294105</v>
+        <v>52.94117647058849</v>
       </c>
       <c r="L429" t="n">
         <v>22.02</v>
@@ -22266,7 +22288,7 @@
         <v>58.80000000000007</v>
       </c>
       <c r="K430" t="n">
-        <v>66.6666666666666</v>
+        <v>55.55555555555586</v>
       </c>
       <c r="L430" t="n">
         <v>22.13</v>
@@ -22317,7 +22339,7 @@
         <v>58.90000000000007</v>
       </c>
       <c r="K431" t="n">
-        <v>62.16216216216204</v>
+        <v>37.50000000000016</v>
       </c>
       <c r="L431" t="n">
         <v>22.22</v>
@@ -22368,7 +22390,7 @@
         <v>59.10000000000007</v>
       </c>
       <c r="K432" t="n">
-        <v>53.84615384615381</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L432" t="n">
         <v>22.26</v>
@@ -22419,7 +22441,7 @@
         <v>59.50000000000006</v>
       </c>
       <c r="K433" t="n">
-        <v>39.53488372093024</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>22.25</v>

--- a/BackTest/2019-10-31 BackTest LBA.xlsx
+++ b/BackTest/2019-10-31 BackTest LBA.xlsx
@@ -1781,102 +1781,90 @@
         <v>18.88666666666668</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1346.0435</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18.87000000000002</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3035.9565</v>
+      </c>
+      <c r="G42" t="n">
+        <v>18.85166666666668</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1346.0435</v>
-      </c>
-      <c r="G41" t="n">
-        <v>18.87000000000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3035.9565</v>
-      </c>
-      <c r="G42" t="n">
-        <v>18.85166666666668</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1910,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
@@ -1951,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
@@ -1986,14 +1974,12 @@
         <v>18.83166666666668</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2115,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
@@ -2150,14 +2136,12 @@
         <v>18.80666666666668</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2191,14 +2175,12 @@
         <v>18.79000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2232,14 +2214,12 @@
         <v>18.77833333333335</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2273,14 +2253,12 @@
         <v>18.76666666666668</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2314,14 +2292,12 @@
         <v>18.75833333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2355,14 +2331,12 @@
         <v>18.74833333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2396,14 +2370,12 @@
         <v>18.72833333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2437,14 +2409,12 @@
         <v>18.71333333333334</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2478,14 +2448,12 @@
         <v>18.70666666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2519,14 +2487,12 @@
         <v>18.69333333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2560,14 +2526,12 @@
         <v>18.68833333333334</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2601,14 +2565,12 @@
         <v>18.67666666666668</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2642,14 +2604,12 @@
         <v>18.66833333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2683,14 +2643,12 @@
         <v>18.65333333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2724,14 +2682,12 @@
         <v>18.63833333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2765,14 +2721,12 @@
         <v>18.63166666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2806,14 +2760,12 @@
         <v>18.62166666666668</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2847,14 +2799,12 @@
         <v>18.60833333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2888,14 +2838,12 @@
         <v>18.59666666666668</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2929,14 +2877,12 @@
         <v>18.58333333333335</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2970,14 +2916,12 @@
         <v>18.56666666666668</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3011,14 +2955,12 @@
         <v>18.55000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3052,14 +2994,12 @@
         <v>18.53666666666668</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3093,14 +3033,12 @@
         <v>18.53500000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>18.1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3134,14 +3072,12 @@
         <v>18.52666666666668</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3175,14 +3111,12 @@
         <v>18.51166666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3216,14 +3150,12 @@
         <v>18.49000000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3257,14 +3189,12 @@
         <v>18.47833333333334</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3298,14 +3228,12 @@
         <v>18.46500000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3339,14 +3267,12 @@
         <v>18.45666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3380,14 +3306,12 @@
         <v>18.44833333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3421,14 +3345,12 @@
         <v>18.45000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3462,14 +3384,12 @@
         <v>18.44833333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3503,14 +3423,12 @@
         <v>18.44166666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3544,14 +3462,12 @@
         <v>18.44833333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3585,14 +3501,12 @@
         <v>18.44</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3626,14 +3540,12 @@
         <v>18.43833333333334</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3667,14 +3579,12 @@
         <v>18.43333333333334</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>18.5</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3708,14 +3618,12 @@
         <v>18.43000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>18.6</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3749,14 +3657,12 @@
         <v>18.43500000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3790,14 +3696,12 @@
         <v>18.43833333333334</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3831,14 +3735,12 @@
         <v>18.44166666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3872,14 +3774,12 @@
         <v>18.44333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3913,14 +3813,12 @@
         <v>18.44500000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3954,14 +3852,12 @@
         <v>18.44500000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>18.7</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3995,14 +3891,12 @@
         <v>18.45166666666668</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>18.8</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -4036,14 +3930,12 @@
         <v>18.45666666666668</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>18.9</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -5874,16 +5766,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5911,11 +5805,15 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5950,7 +5848,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5985,7 +5887,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +5922,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">

--- a/BackTest/2019-10-31 BackTest LBA.xlsx
+++ b/BackTest/2019-10-31 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-522444.1396999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -632,14 +616,10 @@
         <v>-496425.3336999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -669,19 +649,11 @@
         <v>-500485.3336999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -713,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -881,17 +847,11 @@
         <v>-422137.9275999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,17 +880,11 @@
         <v>-493508.1002999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -959,17 +913,11 @@
         <v>-490444.4352999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -998,17 +946,11 @@
         <v>-490444.4352999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1037,17 +979,11 @@
         <v>-489245.6133999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1076,17 +1012,11 @@
         <v>-516333.0875999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,17 +1045,11 @@
         <v>-516333.0875999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1154,17 +1078,11 @@
         <v>-516333.0875999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,17 +1111,11 @@
         <v>-520835.5383999999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,17 +1144,11 @@
         <v>-521107.3184999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,17 +1177,11 @@
         <v>-521107.3184999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1310,17 +1210,11 @@
         <v>-519252.0494999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1349,17 +1243,11 @@
         <v>-519252.0494999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,17 +1276,11 @@
         <v>-519252.0494999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1427,17 +1309,11 @@
         <v>-519252.0494999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1466,17 +1342,11 @@
         <v>-519252.0494999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1505,17 +1375,11 @@
         <v>-520735.1720999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1544,17 +1408,11 @@
         <v>-494735.1720999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,17 +1441,11 @@
         <v>-494725.1720999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1622,17 +1474,11 @@
         <v>-476361.9622999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1661,17 +1507,11 @@
         <v>-488826.9207999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>19.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1700,17 +1540,11 @@
         <v>-494872.6426999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1739,17 +1573,11 @@
         <v>-494836.2790999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1778,17 +1606,11 @@
         <v>-494854.4608999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1817,17 +1639,15 @@
         <v>-494854.4608999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>19.2</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1856,15 +1676,15 @@
         <v>-494897.3509</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1895,15 +1715,17 @@
         <v>-494887.3509</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>19</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1934,15 +1756,17 @@
         <v>-491139.5673999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>19.2</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1973,12 +1797,12 @@
         <v>-658471.1340999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,12 +1836,14 @@
         <v>-659244.3298999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>19</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,12 +1877,14 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>18.9</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2090,12 +1918,14 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>18.8</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2129,12 +1959,14 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>18.8</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,12 +2000,14 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>19</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2207,12 +2041,14 @@
         <v>-618838.8876999998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>19</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,12 +2082,12 @@
         <v>-620224.2365999998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2285,12 +2121,12 @@
         <v>-658251.5802999998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2324,12 +2160,12 @@
         <v>-658251.5802999998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>19</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,12 +2199,12 @@
         <v>-658233.3984999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,12 +2238,14 @@
         <v>-658215.2166999998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>19.1</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2441,12 +2279,12 @@
         <v>-658215.2166999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,12 +2318,12 @@
         <v>-658215.2166999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,12 +2357,12 @@
         <v>-688873.1116999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2558,12 +2396,12 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2597,12 +2435,12 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2636,12 +2474,12 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,12 +2513,12 @@
         <v>-702427.9647999997</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2714,12 +2552,14 @@
         <v>-702416.9647999997</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>19</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,7 +2596,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2793,7 +2635,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,7 +2674,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,12 +2710,12 @@
         <v>-708424.0561999998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>19</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,12 +2749,12 @@
         <v>-742983.0672999998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,12 +2788,12 @@
         <v>-738952.5001999998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2981,12 +2827,12 @@
         <v>-671925.3609999998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3020,12 +2866,14 @@
         <v>-671925.3609999998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>19.2</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3059,12 +2907,12 @@
         <v>-672925.3609999998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3098,12 +2946,12 @@
         <v>-689127.4687999998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>19</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,12 +2985,12 @@
         <v>-685756.2423999998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3176,12 +3024,14 @@
         <v>-645756.2423999998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>19</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3215,12 +3065,12 @@
         <v>-645756.2423999998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,12 +3104,12 @@
         <v>-474623.6727999998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3293,12 +3143,12 @@
         <v>-486978.5114999998</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3335,7 +3185,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,7 +3224,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,7 +3263,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,12 +3299,12 @@
         <v>-882999.6371999998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,12 +3338,12 @@
         <v>-880499.6371999998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,7 +3380,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,12 +3416,12 @@
         <v>-791724.6371999998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,7 +3458,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3637,7 +3497,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3671,10 +3533,14 @@
         <v>-775470.6371999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,10 +3574,14 @@
         <v>-812407.2422999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,10 +3615,14 @@
         <v>-798067.2915999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,10 +3656,14 @@
         <v>-798067.2915999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,10 +3697,14 @@
         <v>-796478.9928999997</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,10 +3738,14 @@
         <v>-796478.9928999997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,10 +3779,14 @@
         <v>-204912.0052999997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3933,7 +3823,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3970,7 +3862,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,7 +3901,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4044,7 +3940,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,10 +3976,14 @@
         <v>-291525.2796999997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,10 +4017,14 @@
         <v>-242088.2796999997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,10 +4058,14 @@
         <v>-242088.2796999997</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,12 +4099,14 @@
         <v>-242088.2796999997</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>18.2</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,12 +4140,14 @@
         <v>-239052.3231999997</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>18.2</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,12 +4181,14 @@
         <v>-237030.3231999997</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>18.3</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,12 +4222,14 @@
         <v>-270830.3231999998</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>18.4</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,12 +4263,14 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>18.3</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,10 +4304,14 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,10 +4345,14 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J106" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4461,7 +4389,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,7 +4428,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,7 +4467,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,10 +4503,14 @@
         <v>-344038.6801999998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4609,7 +4547,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,10 +4583,14 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,7 +4627,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4717,10 +4663,14 @@
         <v>-410687.6531999998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,10 +4704,14 @@
         <v>-323818.5580999998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>18</v>
+      </c>
+      <c r="J115" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4791,10 +4745,14 @@
         <v>-281709.5580999998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4828,10 +4786,14 @@
         <v>-283946.6230999998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,10 +4827,14 @@
         <v>-248337.1995999998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,7 +4871,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,7 +4910,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,7 +4949,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,7 +4988,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5053,7 +5027,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,10 +5063,14 @@
         <v>-114908.0031999998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J124" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,7 +5107,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,7 +5146,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5201,7 +5185,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5238,7 +5224,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5272,12 +5260,12 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5311,12 +5299,12 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5350,12 +5338,12 @@
         <v>-5487.757799999759</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,7 +5380,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,7 +5419,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,7 +5458,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,12 +5494,12 @@
         <v>-205738.8796999998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,12 +5533,12 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,12 +5572,12 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,12 +5611,12 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,12 +5650,12 @@
         <v>-210446.8796999998</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5695,12 +5689,12 @@
         <v>-218995.8511999997</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,12 +5728,12 @@
         <v>-103032.8511999997</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,12 +5767,12 @@
         <v>-103032.8511999997</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,12 +5806,12 @@
         <v>-105532.8511999997</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,12 +5845,12 @@
         <v>-105062.8511999997</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,12 +5884,12 @@
         <v>-109116.5484999997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,12 +5923,12 @@
         <v>-109036.2796827954</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,12 +5962,12 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,12 +6001,12 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,12 +6040,12 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,12 +6079,12 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,12 +6118,12 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,12 +6157,12 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,12 +6196,12 @@
         <v>280527.6167172046</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,12 +6235,12 @@
         <v>330527.6167172046</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,7 +6277,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6317,12 +6313,12 @@
         <v>454290.7355172046</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,12 +6352,12 @@
         <v>454391.6633172046</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6395,12 +6391,12 @@
         <v>452808.5158172045</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6437,7 +6433,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6474,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6511,7 +6511,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,7 +6550,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,12 +6586,12 @@
         <v>367022.9109172046</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,12 +6625,12 @@
         <v>367123.5864172046</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>19</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,12 +6664,12 @@
         <v>367931.5864172046</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6702,7 +6706,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6736,12 +6742,12 @@
         <v>366958.2238172046</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,12 +6781,12 @@
         <v>356008.5008172046</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,12 +6820,12 @@
         <v>356008.5008172046</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,12 +6859,12 @@
         <v>366368.9542172046</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6892,12 +6898,12 @@
         <v>366368.9542172046</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,12 +6937,12 @@
         <v>366368.9542172046</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,12 +6976,12 @@
         <v>365223.0759172046</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7009,12 +7015,12 @@
         <v>366291.0759172046</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7048,12 +7054,12 @@
         <v>541311.8050172046</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7087,12 +7093,12 @@
         <v>540311.8050172046</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,12 +7132,12 @@
         <v>551869.3123172047</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7165,12 +7171,12 @@
         <v>551879.3123172047</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7204,12 +7210,12 @@
         <v>551879.3123172047</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7246,7 +7252,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7283,7 +7291,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,7 +7330,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7357,7 +7369,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7394,7 +7408,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,7 +7447,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7468,7 +7486,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7505,7 +7525,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7539,12 +7561,12 @@
         <v>574753.8544172046</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,12 +7600,12 @@
         <v>756137.5467172046</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,12 +7639,12 @@
         <v>757181.5413172046</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,12 +7678,12 @@
         <v>766129.8223172046</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7698,7 +7720,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,12 +7756,12 @@
         <v>1044415.037917205</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,12 +7795,12 @@
         <v>1254793.705016224</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7813,7 +7837,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7850,7 +7876,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7887,7 +7915,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,7 +7954,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,7 +7993,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,7 +8032,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8035,7 +8071,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8072,7 +8110,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,7 +8149,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8146,7 +8188,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,7 +8227,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,10 +8263,12 @@
         <v>2999775.670694432</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8257,7 +8305,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,7 +8344,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8331,7 +8383,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,10 +8419,12 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8402,10 +8458,12 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8442,7 +8500,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8476,10 +8536,12 @@
         <v>3210137.645862657</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8513,10 +8575,12 @@
         <v>3236765.288662657</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8550,10 +8614,12 @@
         <v>3224421.298662656</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,10 +8653,12 @@
         <v>3102204.008062657</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8624,10 +8692,12 @@
         <v>3191540.819262656</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8661,10 +8731,12 @@
         <v>3092952.633762656</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8698,10 +8770,12 @@
         <v>3092952.633762656</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,10 +8809,12 @@
         <v>3258531.373062656</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,10 +8848,12 @@
         <v>3258531.373062656</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8809,19 +8887,23 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>1.073125</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1.059139784946237</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8846,15 +8928,11 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8883,15 +8961,11 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8920,15 +8994,11 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8957,15 +9027,11 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8994,15 +9060,11 @@
         <v>3231935.138262657</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9031,15 +9093,11 @@
         <v>3022796.211662657</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9068,15 +9126,11 @@
         <v>3040296.211662657</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9105,15 +9159,11 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9142,15 +9192,11 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9179,15 +9225,11 @@
         <v>3008237.285062657</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9216,15 +9258,11 @@
         <v>2878959.577062657</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9253,15 +9291,11 @@
         <v>2879438.155494029</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9294,11 +9328,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9331,11 +9361,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9368,11 +9394,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9405,11 +9427,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9442,11 +9460,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9479,11 +9493,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9512,15 +9522,11 @@
         <v>2195076.661331284</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +9559,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9586,15 +9588,11 @@
         <v>2266006.895331284</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9623,15 +9621,11 @@
         <v>2262454.211331284</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9660,15 +9654,11 @@
         <v>2262454.211331284</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9697,15 +9687,11 @@
         <v>2269902.761331284</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9734,15 +9720,11 @@
         <v>2256831.435631284</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9771,15 +9753,11 @@
         <v>2256831.435631284</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9808,15 +9786,11 @@
         <v>2088471.615131284</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9845,15 +9819,11 @@
         <v>2148630.199931284</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9882,15 +9852,11 @@
         <v>2148630.199931284</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9919,15 +9885,11 @@
         <v>2239322.046131284</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9956,15 +9918,11 @@
         <v>2239322.046131284</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9993,15 +9951,11 @@
         <v>2239649.015731284</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10030,15 +9984,11 @@
         <v>2103710.285831284</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10067,15 +10017,11 @@
         <v>2090638.960131284</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10108,11 +10054,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10145,11 +10087,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10182,11 +10120,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10153,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10256,11 +10186,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10293,11 +10219,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10330,11 +10252,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10367,11 +10285,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10404,11 +10318,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +10351,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10478,11 +10384,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10515,11 +10417,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10552,11 +10450,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10589,11 +10483,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10626,11 +10516,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10663,11 +10549,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10700,11 +10582,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10737,11 +10615,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10774,11 +10648,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10811,11 +10681,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10848,11 +10714,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10885,11 +10747,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10922,11 +10780,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10959,11 +10813,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10996,11 +10846,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11033,11 +10879,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11070,11 +10912,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11107,11 +10945,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11144,11 +10978,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11181,11 +11011,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11218,11 +11044,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11255,11 +11077,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11292,11 +11110,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11329,11 +11143,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11366,11 +11176,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11403,11 +11209,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11242,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11477,11 +11275,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11514,11 +11308,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11551,11 +11341,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11588,11 +11374,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11625,11 +11407,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +11440,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11699,11 +11473,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11736,11 +11506,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11773,11 +11539,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11810,11 +11572,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11847,11 +11605,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11884,11 +11638,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +11671,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +11704,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11995,11 +11737,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +11770,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12069,11 +11803,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12106,11 +11836,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12143,11 +11869,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12180,11 +11902,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12217,11 +11935,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12254,11 +11968,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12291,11 +12001,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12328,11 +12034,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12365,11 +12067,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12402,11 +12100,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12439,11 +12133,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12476,11 +12166,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12513,11 +12199,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12550,11 +12232,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12587,11 +12265,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12624,11 +12298,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12331,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12698,11 +12364,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12735,11 +12397,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12772,11 +12430,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12809,11 +12463,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12846,11 +12496,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12883,11 +12529,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12920,11 +12562,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12953,16 +12591,14 @@
         <v>2280880.88040571</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
       <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
@@ -12988,7 +12624,7 @@
         <v>2349364.78360571</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -14407,7 +14043,7 @@
         <v>2406280.87980571</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14440,7 +14076,7 @@
         <v>2407216.26330571</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14473,7 +14109,7 @@
         <v>2405439.76900571</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14539,7 +14175,7 @@
         <v>2389077.43740571</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14572,7 +14208,7 @@
         <v>2389077.43740571</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14605,7 +14241,7 @@
         <v>2284472.01170571</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15067,7 +14703,7 @@
         <v>2184263.951751864</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15100,7 +14736,7 @@
         <v>1775197.409951864</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15133,7 +14769,7 @@
         <v>2102380.360251864</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15166,7 +14802,7 @@
         <v>2102380.360251864</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15199,7 +14835,7 @@
         <v>2117140.855204245</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15232,7 +14868,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15265,7 +14901,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15298,7 +14934,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15331,7 +14967,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15364,7 +15000,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15397,7 +15033,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15430,7 +15066,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15463,7 +15099,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15496,7 +15132,7 @@
         <v>2046050.708804245</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15529,7 +15165,7 @@
         <v>2046050.708804245</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15562,7 +15198,7 @@
         <v>2046050.708804245</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15595,7 +15231,7 @@
         <v>2024942.832004245</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15628,7 +15264,7 @@
         <v>2024942.832004245</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15661,7 +15297,7 @@
         <v>2024942.832004245</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15694,7 +15330,7 @@
         <v>2024006.900704245</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15727,7 +15363,7 @@
         <v>2023879.377704245</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15760,7 +15396,7 @@
         <v>2028225.021104245</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15793,7 +15429,7 @@
         <v>2025882.108304245</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15826,7 +15462,7 @@
         <v>1971748.197504245</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15892,7 +15528,7 @@
         <v>2065814.707104245</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15925,7 +15561,7 @@
         <v>2065814.707104245</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15991,7 +15627,7 @@
         <v>1895912.492104245</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16024,7 +15660,7 @@
         <v>1981912.492104245</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16057,7 +15693,7 @@
         <v>1981755.129004245</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16090,7 +15726,7 @@
         <v>1985306.925104245</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16123,7 +15759,7 @@
         <v>1985306.925104245</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16255,7 +15891,7 @@
         <v>1821762.148804245</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16288,7 +15924,7 @@
         <v>1943302.890104244</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16321,7 +15957,7 @@
         <v>1941949.900104244</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16387,7 +16023,7 @@
         <v>1941949.900104244</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17641,7 +17277,7 @@
         <v>2101972.248204245</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17674,7 +17310,7 @@
         <v>2341806.722004245</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17707,7 +17343,7 @@
         <v>2459699.979428773</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17740,7 +17376,7 @@
         <v>2499699.979428773</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17773,7 +17409,7 @@
         <v>2548395.613589603</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17806,7 +17442,7 @@
         <v>3217378.953489217</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17817,6 +17453,6 @@
       <c r="M481" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LBA.xlsx
+++ b/BackTest/2019-10-31 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1639,14 +1639,10 @@
         <v>-494854.4608999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1679,851 +1675,721 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>19.2</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="C40" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-494887.3509</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3747.7835</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-491139.5673999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>19</v>
+      </c>
+      <c r="F42" t="n">
+        <v>167331.5667</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-658471.1340999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>773.1958</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-659244.3298999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1030.9278</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-660275.2576999998</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6604.278</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-660275.2576999998</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>32404.9918</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-627870.2658999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19</v>
+      </c>
+      <c r="C47" t="n">
+        <v>19</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19</v>
+      </c>
+      <c r="E47" t="n">
+        <v>19</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10852</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-627870.2658999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>19</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9031.378199999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-618838.8876999998</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1385.3489</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-620224.2365999998</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>19</v>
+      </c>
+      <c r="D50" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>19</v>
+      </c>
+      <c r="F50" t="n">
+        <v>38027.3437</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-658251.5802999998</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>19</v>
+      </c>
+      <c r="D51" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>19</v>
+      </c>
+      <c r="F51" t="n">
+        <v>31761.3458</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-658251.5802999998</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-658233.3984999998</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-658215.2166999998</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1509.5304</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-658215.2166999998</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>108695.939</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-658215.2166999998</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30657.895</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-688873.1116999998</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1485.1469</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-687387.9647999997</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>524</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-687387.9647999997</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3062.6064</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-687387.9647999997</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19</v>
+      </c>
+      <c r="D60" t="n">
         <v>19.2</v>
       </c>
-      <c r="C40" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D40" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-494887.3509</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>19</v>
-      </c>
-      <c r="J40" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3747.7835</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-491139.5673999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="E60" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>15040</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-702427.9647999997</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>19</v>
-      </c>
-      <c r="D42" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>19</v>
-      </c>
-      <c r="F42" t="n">
-        <v>167331.5667</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-658471.1340999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C43" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D43" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E43" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F43" t="n">
-        <v>773.1958</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-659244.3298999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1030.9278</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-660275.2576999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="D45" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="E45" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6604.278</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-660275.2576999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>19</v>
-      </c>
-      <c r="D46" t="n">
-        <v>19</v>
-      </c>
-      <c r="E46" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>32404.9918</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-627870.2658999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>19</v>
-      </c>
-      <c r="C47" t="n">
-        <v>19</v>
-      </c>
-      <c r="D47" t="n">
-        <v>19</v>
-      </c>
-      <c r="E47" t="n">
-        <v>19</v>
-      </c>
-      <c r="F47" t="n">
-        <v>10852</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-627870.2658999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19</v>
-      </c>
-      <c r="J47" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>19</v>
-      </c>
-      <c r="C48" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="D48" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E48" t="n">
-        <v>19</v>
-      </c>
-      <c r="F48" t="n">
-        <v>9031.378199999999</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-618838.8876999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>19</v>
-      </c>
-      <c r="J48" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1385.3489</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-620224.2365999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>19</v>
-      </c>
-      <c r="D50" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>19</v>
-      </c>
-      <c r="F50" t="n">
-        <v>38027.3437</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-658251.5802999998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>19</v>
-      </c>
-      <c r="D51" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>19</v>
-      </c>
-      <c r="F51" t="n">
-        <v>31761.3458</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-658251.5802999998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-658233.3984999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-658215.2166999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1509.5304</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-658215.2166999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E55" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>108695.939</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-658215.2166999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>30657.895</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-688873.1116999998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1485.1469</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-687387.9647999997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F58" t="n">
-        <v>524</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-687387.9647999997</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3062.6064</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-687387.9647999997</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>19</v>
-      </c>
-      <c r="D60" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F60" t="n">
-        <v>15040</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-702427.9647999997</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2558,7 +2424,7 @@
         <v>19</v>
       </c>
       <c r="J61" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2597,7 +2463,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2636,7 +2502,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2671,11 +2537,13 @@
         <v>-708424.0561999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>19</v>
+      </c>
       <c r="J64" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2714,7 +2582,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2753,7 +2621,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2788,11 +2656,13 @@
         <v>-738952.5001999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J67" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2827,11 +2697,13 @@
         <v>-671925.3609999998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19.1</v>
+      </c>
       <c r="J68" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2866,13 +2738,11 @@
         <v>-671925.3609999998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2911,7 +2781,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2946,11 +2816,13 @@
         <v>-689127.4687999998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
       <c r="J71" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2985,11 +2857,13 @@
         <v>-685756.2423999998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J72" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3030,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="J73" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3069,7 +2943,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3108,7 +2982,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3147,7 +3021,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3186,7 +3060,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3225,7 +3099,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3260,11 +3134,13 @@
         <v>-883146.5121999998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J79" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3303,7 +3179,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3338,11 +3214,13 @@
         <v>-880499.6371999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J81" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3377,11 +3255,13 @@
         <v>-891824.6371999998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>19</v>
+      </c>
       <c r="J82" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3416,11 +3296,13 @@
         <v>-791724.6371999998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J83" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3455,11 +3337,13 @@
         <v>-792240.6371999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J84" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3498,7 +3382,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3539,7 +3423,7 @@
         <v>18.7</v>
       </c>
       <c r="J86" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3574,13 +3458,11 @@
         <v>-812407.2422999998</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3615,13 +3497,11 @@
         <v>-798067.2915999998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>18.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3662,7 +3542,7 @@
         <v>18.5</v>
       </c>
       <c r="J89" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3703,7 +3583,7 @@
         <v>18.5</v>
       </c>
       <c r="J90" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3744,7 +3624,7 @@
         <v>18.6</v>
       </c>
       <c r="J91" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3785,7 +3665,7 @@
         <v>18.6</v>
       </c>
       <c r="J92" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3824,7 +3704,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3863,7 +3743,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3902,7 +3782,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3941,7 +3821,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3976,13 +3856,11 @@
         <v>-291525.2796999997</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4023,7 +3901,7 @@
         <v>17.8</v>
       </c>
       <c r="J98" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4064,7 +3942,7 @@
         <v>18.2</v>
       </c>
       <c r="J99" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4105,7 +3983,7 @@
         <v>18.2</v>
       </c>
       <c r="J100" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4146,7 +4024,7 @@
         <v>18.2</v>
       </c>
       <c r="J101" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4187,7 +4065,7 @@
         <v>18.3</v>
       </c>
       <c r="J102" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4228,7 +4106,7 @@
         <v>18.4</v>
       </c>
       <c r="J103" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4269,7 +4147,7 @@
         <v>18.3</v>
       </c>
       <c r="J104" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4304,13 +4182,11 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4345,13 +4221,11 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>18.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4390,7 +4264,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4429,7 +4303,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4468,7 +4342,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4503,13 +4377,11 @@
         <v>-344038.6801999998</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4544,11 +4416,13 @@
         <v>-344038.6801999998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J111" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4583,13 +4457,11 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4628,7 +4500,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4663,13 +4535,11 @@
         <v>-410687.6531999998</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>18.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4704,13 +4574,11 @@
         <v>-323818.5580999998</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4745,13 +4613,11 @@
         <v>-281709.5580999998</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4786,13 +4652,11 @@
         <v>-283946.6230999998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4827,13 +4691,11 @@
         <v>-248337.1995999998</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4872,7 +4734,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4911,7 +4773,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4950,7 +4812,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4989,7 +4851,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5028,7 +4890,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5063,13 +4925,11 @@
         <v>-114908.0031999998</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>18.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5108,7 +4968,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5147,7 +5007,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5186,7 +5046,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5225,7 +5085,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5264,7 +5124,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5303,7 +5163,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5342,7 +5202,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5381,7 +5241,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5420,7 +5280,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5459,7 +5319,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5498,7 +5358,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5537,7 +5397,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5576,7 +5436,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5615,7 +5475,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5654,7 +5514,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5693,7 +5553,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5732,7 +5592,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5771,7 +5631,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5810,7 +5670,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5849,7 +5709,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5888,7 +5748,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5927,7 +5787,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5966,7 +5826,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6005,7 +5865,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6044,7 +5904,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6083,7 +5943,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6122,7 +5982,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6161,7 +6021,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6200,7 +6060,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6239,7 +6099,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6278,7 +6138,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6317,7 +6177,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6356,7 +6216,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6395,7 +6255,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6434,7 +6294,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6473,7 +6333,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6512,7 +6372,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6551,7 +6411,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6590,7 +6450,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6629,7 +6489,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6668,7 +6528,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6707,7 +6567,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6746,7 +6606,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6785,7 +6645,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6824,7 +6684,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6863,7 +6723,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6902,7 +6762,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6941,7 +6801,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6980,7 +6840,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7019,7 +6879,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7058,7 +6918,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7097,7 +6957,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7136,7 +6996,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7175,7 +7035,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7214,7 +7074,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7253,7 +7113,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7292,7 +7152,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7331,7 +7191,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7370,7 +7230,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7409,7 +7269,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7448,7 +7308,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7487,7 +7347,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7526,7 +7386,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7565,7 +7425,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7604,7 +7464,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7643,7 +7503,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7682,7 +7542,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7721,7 +7581,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7760,7 +7620,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7799,7 +7659,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7838,7 +7698,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7877,7 +7737,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7916,7 +7776,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7955,7 +7815,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7994,7 +7854,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8029,21 +7889,23 @@
         <v>2131850.826416224</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>1.089240837696335</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1.059139784946237</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8068,17 +7930,11 @@
         <v>2371284.650716224</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +7963,11 @@
         <v>2837901.078261689</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8149,14 +7999,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8188,14 +8032,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8227,14 +8065,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8266,14 +8098,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8305,14 +8131,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8344,14 +8164,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8383,14 +8197,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +8230,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8461,14 +8263,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8500,14 +8296,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8329,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8578,14 +8362,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8617,14 +8395,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +8428,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +8461,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8734,14 +8494,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +8527,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8812,14 +8560,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8851,14 +8593,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8887,23 +8623,15 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
-        <v>1.073125</v>
-      </c>
-      <c r="M222" t="n">
-        <v>1.059139784946237</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8961,7 +8689,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8994,7 +8722,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9324,7 +9052,7 @@
         <v>2804333.308294029</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9357,7 +9085,7 @@
         <v>2788550.035031284</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9522,7 +9250,7 @@
         <v>2195076.661331284</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9588,7 +9316,7 @@
         <v>2266006.895331284</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9621,7 +9349,7 @@
         <v>2262454.211331284</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9654,7 +9382,7 @@
         <v>2262454.211331284</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9687,7 +9415,7 @@
         <v>2269902.761331284</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9720,7 +9448,7 @@
         <v>2256831.435631284</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9753,7 +9481,7 @@
         <v>2256831.435631284</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9786,7 +9514,7 @@
         <v>2088471.615131284</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9819,7 +9547,7 @@
         <v>2148630.199931284</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9852,7 +9580,7 @@
         <v>2148630.199931284</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9885,7 +9613,7 @@
         <v>2239322.046131284</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9918,7 +9646,7 @@
         <v>2239322.046131284</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9951,7 +9679,7 @@
         <v>2239649.015731284</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9984,7 +9712,7 @@
         <v>2103710.285831284</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10017,7 +9745,7 @@
         <v>2090638.960131284</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -13548,7 +13276,7 @@
         <v>2469920.201605711</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14043,7 +13771,7 @@
         <v>2406280.87980571</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14076,7 +13804,7 @@
         <v>2407216.26330571</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14109,7 +13837,7 @@
         <v>2405439.76900571</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14175,7 +13903,7 @@
         <v>2389077.43740571</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14208,7 +13936,7 @@
         <v>2389077.43740571</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14241,7 +13969,7 @@
         <v>2284472.01170571</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14703,7 +14431,7 @@
         <v>2184263.951751864</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14736,7 +14464,7 @@
         <v>1775197.409951864</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14769,7 +14497,7 @@
         <v>2102380.360251864</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14802,7 +14530,7 @@
         <v>2102380.360251864</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14835,7 +14563,7 @@
         <v>2117140.855204245</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14868,7 +14596,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14901,7 +14629,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14934,7 +14662,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14967,7 +14695,7 @@
         <v>2108971.257204245</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15000,7 +14728,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15033,7 +14761,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15066,7 +14794,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15099,7 +14827,7 @@
         <v>2038187.102704245</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15132,7 +14860,7 @@
         <v>2046050.708804245</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15165,7 +14893,7 @@
         <v>2046050.708804245</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15198,7 +14926,7 @@
         <v>2046050.708804245</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15231,7 +14959,7 @@
         <v>2024942.832004245</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15264,7 +14992,7 @@
         <v>2024942.832004245</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15297,7 +15025,7 @@
         <v>2024942.832004245</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15330,7 +15058,7 @@
         <v>2024006.900704245</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15363,7 +15091,7 @@
         <v>2023879.377704245</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15396,7 +15124,7 @@
         <v>2028225.021104245</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15429,7 +15157,7 @@
         <v>2025882.108304245</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15462,7 +15190,7 @@
         <v>1971748.197504245</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15528,7 +15256,7 @@
         <v>2065814.707104245</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15561,7 +15289,7 @@
         <v>2065814.707104245</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15627,7 +15355,7 @@
         <v>1895912.492104245</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15660,7 +15388,7 @@
         <v>1981912.492104245</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15693,7 +15421,7 @@
         <v>1981755.129004245</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15726,7 +15454,7 @@
         <v>1985306.925104245</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15759,7 +15487,7 @@
         <v>1985306.925104245</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15891,7 +15619,7 @@
         <v>1821762.148804245</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15924,7 +15652,7 @@
         <v>1943302.890104244</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15957,7 +15685,7 @@
         <v>1941949.900104244</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16023,7 +15751,7 @@
         <v>1941949.900104244</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17453,6 +17181,6 @@
       <c r="M481" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LBA.xlsx
+++ b/BackTest/2019-10-31 BackTest LBA.xlsx
@@ -1177,10 +1177,14 @@
         <v>-521107.3184999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>19.1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1213,8 +1217,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1256,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1342,10 +1358,14 @@
         <v>-519252.0494999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1375,11 +1395,19 @@
         <v>-520735.1720999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1436,19 @@
         <v>-494735.1720999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,10 +1477,14 @@
         <v>-494725.1720999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>19.2</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1477,8 +1517,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1556,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1592,19 @@
         <v>-494872.6426999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1633,19 @@
         <v>-494836.2790999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1674,19 @@
         <v>-494854.4608999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1715,19 @@
         <v>-494854.4608999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1756,19 @@
         <v>-494897.3509</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1797,19 @@
         <v>-494887.3509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>19</v>
+      </c>
+      <c r="J40" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1838,19 @@
         <v>-491139.5673999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1879,19 @@
         <v>-658471.1340999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1920,19 @@
         <v>-659244.3298999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1961,19 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2002,19 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2043,19 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2084,19 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2125,19 @@
         <v>-618838.8876999998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>19</v>
+      </c>
+      <c r="J48" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2166,19 @@
         <v>-620224.2365999998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2210,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2246,19 @@
         <v>-658251.5802999998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>19</v>
+      </c>
+      <c r="J51" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2287,19 @@
         <v>-658233.3984999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>19</v>
+      </c>
+      <c r="J52" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2328,19 @@
         <v>-658215.2166999998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2372,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2411,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2450,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2489,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,15 +2525,17 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>19.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,17 +2564,15 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2377,17 +2603,15 @@
         <v>-702427.9647999997</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2418,13 +2642,11 @@
         <v>-702416.9647999997</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2463,7 +2685,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2502,7 +2724,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2537,13 +2759,11 @@
         <v>-708424.0561999998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2582,7 +2802,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2621,7 +2841,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2656,13 +2876,11 @@
         <v>-738952.5001999998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2697,13 +2915,11 @@
         <v>-671925.3609999998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>19.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2742,7 +2958,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2781,7 +2997,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2816,13 +3032,11 @@
         <v>-689127.4687999998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2857,13 +3071,11 @@
         <v>-685756.2423999998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2898,13 +3110,11 @@
         <v>-645756.2423999998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2943,7 +3153,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2982,7 +3192,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3021,7 +3231,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3060,7 +3270,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3099,7 +3309,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3134,13 +3344,11 @@
         <v>-883146.5121999998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3179,7 +3387,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3214,13 +3422,11 @@
         <v>-880499.6371999998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>18.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3255,13 +3461,11 @@
         <v>-891824.6371999998</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3296,13 +3500,11 @@
         <v>-791724.6371999998</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3337,13 +3539,11 @@
         <v>-792240.6371999998</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3382,7 +3582,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3417,13 +3617,11 @@
         <v>-775470.6371999998</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3462,7 +3660,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3501,7 +3699,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3542,7 +3740,7 @@
         <v>18.5</v>
       </c>
       <c r="J89" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3583,7 +3781,7 @@
         <v>18.5</v>
       </c>
       <c r="J90" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3624,7 +3822,7 @@
         <v>18.6</v>
       </c>
       <c r="J91" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3665,7 +3863,7 @@
         <v>18.6</v>
       </c>
       <c r="J92" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3704,7 +3902,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3743,7 +3941,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3782,7 +3980,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3821,7 +4019,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3860,7 +4058,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3901,7 +4099,7 @@
         <v>17.8</v>
       </c>
       <c r="J98" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3942,7 +4140,7 @@
         <v>18.2</v>
       </c>
       <c r="J99" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3983,7 +4181,7 @@
         <v>18.2</v>
       </c>
       <c r="J100" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4024,7 +4222,7 @@
         <v>18.2</v>
       </c>
       <c r="J101" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4065,7 +4263,7 @@
         <v>18.3</v>
       </c>
       <c r="J102" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4106,7 +4304,7 @@
         <v>18.4</v>
       </c>
       <c r="J103" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4147,7 +4345,7 @@
         <v>18.3</v>
       </c>
       <c r="J104" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4182,11 +4380,13 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>18.8</v>
+      </c>
       <c r="J105" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4221,11 +4421,13 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>18.8</v>
+      </c>
       <c r="J106" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4260,11 +4462,13 @@
         <v>-262248.8393999998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>18.8</v>
+      </c>
       <c r="J107" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4299,11 +4503,13 @@
         <v>-255075.5894999998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J108" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4338,11 +4544,13 @@
         <v>-344038.6801999998</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>18.8</v>
+      </c>
       <c r="J109" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4377,11 +4585,13 @@
         <v>-344038.6801999998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J110" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4422,7 +4632,7 @@
         <v>18.3</v>
       </c>
       <c r="J111" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4457,11 +4667,13 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J112" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4496,11 +4708,13 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J113" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4535,11 +4749,13 @@
         <v>-410687.6531999998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J114" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4574,11 +4790,13 @@
         <v>-323818.5580999998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>18</v>
+      </c>
       <c r="J115" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4613,11 +4831,13 @@
         <v>-281709.5580999998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J116" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4652,11 +4872,13 @@
         <v>-283946.6230999998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J117" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4691,11 +4913,13 @@
         <v>-248337.1995999998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J118" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4730,11 +4954,13 @@
         <v>-249376.5419999998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>18.8</v>
+      </c>
       <c r="J119" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4769,11 +4995,13 @@
         <v>-193727.2137999998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J120" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4808,11 +5036,13 @@
         <v>-163782.2137999998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J121" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4847,11 +5077,13 @@
         <v>-208071.2336999998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J122" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4886,11 +5118,13 @@
         <v>-98068.5800999998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J123" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4925,11 +5159,13 @@
         <v>-114908.0031999998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J124" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4964,11 +5200,13 @@
         <v>-205326.2012999998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J125" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5003,11 +5241,13 @@
         <v>-205326.2012999998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J126" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5042,11 +5282,13 @@
         <v>-200074.4120999998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J127" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5081,11 +5323,13 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J128" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5120,11 +5364,13 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J129" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5159,11 +5405,13 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J130" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5198,11 +5446,13 @@
         <v>-5487.757799999759</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J131" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5237,11 +5487,13 @@
         <v>-43256.75779999976</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>18.8</v>
+      </c>
       <c r="J132" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5276,11 +5528,13 @@
         <v>-48790.89499999976</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J133" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5315,11 +5569,13 @@
         <v>-208238.8796999998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J134" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5354,11 +5610,13 @@
         <v>-205738.8796999998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>17.9</v>
+      </c>
       <c r="J135" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5393,11 +5651,13 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J136" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5432,11 +5692,13 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J137" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5471,11 +5733,13 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J138" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5510,11 +5774,13 @@
         <v>-210446.8796999998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J139" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5549,11 +5815,13 @@
         <v>-218995.8511999997</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>18.5</v>
+      </c>
       <c r="J140" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5588,11 +5856,13 @@
         <v>-103032.8511999997</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J141" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5627,11 +5897,13 @@
         <v>-103032.8511999997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J142" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5666,11 +5938,13 @@
         <v>-105532.8511999997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J143" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5709,7 +5983,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5748,7 +6022,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5783,11 +6057,13 @@
         <v>-109036.2796827954</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J146" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5822,11 +6098,13 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J147" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5861,11 +6139,13 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J148" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5900,11 +6180,13 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J149" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5939,11 +6221,13 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J150" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5978,11 +6262,13 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J151" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6017,11 +6303,13 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J152" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6056,11 +6344,13 @@
         <v>280527.6167172046</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J153" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6099,7 +6389,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6138,7 +6428,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6177,7 +6467,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6216,7 +6506,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6255,7 +6545,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6294,7 +6584,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6333,7 +6623,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6372,7 +6662,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6411,7 +6701,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6450,7 +6740,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6489,7 +6779,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6528,7 +6818,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6567,7 +6857,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6606,7 +6896,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6645,7 +6935,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6684,7 +6974,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6723,7 +7013,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6762,7 +7052,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6801,7 +7091,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6840,7 +7130,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6879,7 +7169,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6918,7 +7208,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6957,7 +7247,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6996,7 +7286,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7035,7 +7325,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7074,7 +7364,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7113,7 +7403,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7152,7 +7442,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7191,7 +7481,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7230,7 +7520,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7269,7 +7559,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7308,7 +7598,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7347,7 +7637,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7386,7 +7676,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7425,7 +7715,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7464,7 +7754,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7503,7 +7793,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7542,7 +7832,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7581,7 +7871,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7620,7 +7910,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7659,7 +7949,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7698,7 +7988,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7737,7 +8027,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7776,7 +8066,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7815,7 +8105,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7854,7 +8144,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7889,23 +8179,21 @@
         <v>2131850.826416224</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.089240837696335</v>
-      </c>
-      <c r="M200" t="n">
-        <v>1.059139784946237</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7930,11 +8218,17 @@
         <v>2371284.650716224</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7963,11 +8257,17 @@
         <v>2837901.078261689</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7999,8 +8299,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8029,15 +8335,23 @@
         <v>3331341.068894432</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>1.109583333333333</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1.059139784946237</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8062,7 +8376,7 @@
         <v>3406354.366594432</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8095,7 +8409,7 @@
         <v>2999775.670694432</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8128,7 +8442,7 @@
         <v>3075311.126994432</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8161,7 +8475,7 @@
         <v>3019161.799694432</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8260,7 +8574,7 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8293,7 +8607,7 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8326,7 +8640,7 @@
         <v>3210137.645862657</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8359,7 +8673,7 @@
         <v>3236765.288662657</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8392,7 +8706,7 @@
         <v>3224421.298662656</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8425,7 +8739,7 @@
         <v>3102204.008062657</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8458,7 +8772,7 @@
         <v>3191540.819262656</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8623,7 +8937,7 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8656,7 +8970,7 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8689,7 +9003,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8722,7 +9036,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8854,7 +9168,7 @@
         <v>3040296.211662657</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8887,7 +9201,7 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8920,7 +9234,7 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8953,7 +9267,7 @@
         <v>3008237.285062657</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8986,7 +9300,7 @@
         <v>2878959.577062657</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9019,7 +9333,7 @@
         <v>2879438.155494029</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9052,7 +9366,7 @@
         <v>2804333.308294029</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9085,7 +9399,7 @@
         <v>2788550.035031284</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -13276,7 +13590,7 @@
         <v>2469920.201605711</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
